--- a/rabbitmq/data/simulation.xlsx
+++ b/rabbitmq/data/simulation.xlsx
@@ -3273,16 +3273,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="199"/>
                 <c:pt idx="0">
-                  <c:v>8079.5675665679355</c:v>
+                  <c:v>5.2355193852981898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9597.0700788137929</c:v>
+                  <c:v>6.218853425720944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7811.0323156701179</c:v>
+                  <c:v>5.0615098853926579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3213.2616638697145</c:v>
+                  <c:v>2.0821774918792557</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -3306,19 +3306,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4566.1560978757589</c:v>
+                  <c:v>2.9588463206430027</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8554.7524633396788</c:v>
+                  <c:v>5.5434368224817954</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9526.8234828798413</c:v>
+                  <c:v>6.1733339827887237</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7214.6974881227434</c:v>
+                  <c:v>4.6750878988160975</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2255.046707810623</c:v>
+                  <c:v>1.4612589914277447</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
@@ -3342,19 +3342,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5401.5302828987478</c:v>
+                  <c:v>3.5001646156669746</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8944.3987643525015</c:v>
+                  <c:v>5.7959256773065997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9363.4480156177415</c:v>
+                  <c:v>6.0674674968802176</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6543.2876897320639</c:v>
+                  <c:v>4.2400177065079294</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1260.4834946904193</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1</c:v>
@@ -3375,22 +3375,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>745.00750821716065</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6175.987350222993</c:v>
+                  <c:v>4.0020089230077485</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9245.4639729783084</c:v>
+                  <c:v>5.9910144271700796</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9108.2193706680191</c:v>
+                  <c:v>5.9020806110960224</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5802.0455265291439</c:v>
+                  <c:v>3.7596964909632526</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>237.33792710968828</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1</c:v>
@@ -3411,19 +3411,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1755.0428544683364</c:v>
+                  <c:v>1.1372589944812097</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6883.4800641636912</c:v>
+                  <c:v>4.4604606641777513</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9455.5972652013224</c:v>
+                  <c:v>6.1271797498641307</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8763.130463887017</c:v>
+                  <c:v>5.6784647249464681</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4996.7588804373627</c:v>
+                  <c:v>3.2378747707290088</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1</c:v>
@@ -3447,19 +3447,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2732.634151227865</c:v>
+                  <c:v>1.7707332668249005</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7518.4840704770859</c:v>
+                  <c:v>4.8719400852487995</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9573.1578456864499</c:v>
+                  <c:v>6.2033584182155916</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8330.8758719524631</c:v>
+                  <c:v>5.398365910645837</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4133.7157154358811</c:v>
+                  <c:v>2.6786271150238736</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>1</c:v>
@@ -3483,19 +3483,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3670.1480186424965</c:v>
+                  <c:v>2.3782375653402448</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8076.0410324793402</c:v>
+                  <c:v>5.2332342088414503</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>9597.2277596916792</c:v>
+                  <c:v>6.2189556021414099</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7814.830792152311</c:v>
+                  <c:v>5.0639712791607367</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3219.6549789049022</c:v>
+                  <c:v>2.0863203280554821</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1</c:v>
@@ -3519,19 +3519,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4560.2640156532907</c:v>
+                  <c:v>2.9550282808232544</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8551.7973474993832</c:v>
+                  <c:v>5.5415219221928629</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9527.6190607845419</c:v>
+                  <c:v>6.1738495132930789</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7219.0246876462352</c:v>
+                  <c:v>4.6778919024713224</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2261.713981532444</c:v>
+                  <c:v>1.4655793514631161</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1</c:v>
@@ -3555,19 +3555,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5396.0318005978843</c:v>
+                  <c:v>3.4966016266284261</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>8942.0381413539399</c:v>
+                  <c:v>5.7943960054066475</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9364.8752783945747</c:v>
+                  <c:v>6.068392356023292</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6548.1098239869816</c:v>
+                  <c:v>4.2431424253944439</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1267.3726666590246</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>1</c:v>
@@ -3588,22 +3588,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>738.02517873086799</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6170.925401945291</c:v>
+                  <c:v>3.9987288058335388</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>9243.716275403789</c:v>
+                  <c:v>5.989881927880278</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>9110.2671737426008</c:v>
+                  <c:v>5.9034075772493368</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5807.3249425795457</c:v>
+                  <c:v>3.763117526166833</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>244.3952042249457</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>1</c:v>
@@ -3624,19 +3624,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1748.2549831182341</c:v>
+                  <c:v>1.1328604877857003</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>6878.8941753981053</c:v>
+                  <c:v>4.4574890311870954</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>9454.476139693872</c:v>
+                  <c:v>6.1264532661409312</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8765.7828172860482</c:v>
+                  <c:v>5.6801834366872725</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>5002.454354728734</c:v>
+                  <c:v>3.2415654095924462</c:v>
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>1</c:v>
@@ -3660,19 +3660,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2726.0937401228925</c:v>
+                  <c:v>1.7664951131309339</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>7514.4100494709164</c:v>
+                  <c:v>4.8693001400069065</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>9572.6720463919901</c:v>
+                  <c:v>6.2030436227017773</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>8334.1120651591191</c:v>
+                  <c:v>5.400462947662783</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>4139.7827756832776</c:v>
+                  <c:v>2.6825585397288854</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>1</c:v>
@@ -3696,19 +3696,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3663.9061376341615</c:v>
+                  <c:v>2.3741928576562485</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>8072.5106906347246</c:v>
+                  <c:v>5.2309465649778488</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>9597.3810799035382</c:v>
+                  <c:v>6.2190549528720931</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>7818.625555821307</c:v>
+                  <c:v>5.0664302670444279</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3226.0462513483326</c:v>
+                  <c:v>2.0904618406424627</c:v>
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>1</c:v>
@@ -3732,19 +3732,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>4554.3694035641402</c:v>
+                  <c:v>2.951208601662545</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>8548.8382509785861</c:v>
+                  <c:v>5.5396044424428696</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>9528.4103033240845</c:v>
+                  <c:v>6.1743622345024907</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>7223.3483909158422</c:v>
+                  <c:v>4.6806936405715112</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2268.3795608480095</c:v>
+                  <c:v>1.469898613531706</c:v>
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>1</c:v>
@@ -3768,19 +3768,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>5390.5304846514746</c:v>
+                  <c:v>3.4930368014017326</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>8939.6733958329642</c:v>
+                  <c:v>5.792863662132782</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>9366.2982649591922</c:v>
+                  <c:v>6.0693144442022318</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>6552.9287058473192</c:v>
+                  <c:v>4.2462650367455339</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1274.2605056373968</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>1</c:v>
@@ -3801,22 +3801,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>731.04170865776177</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>6165.8603383692935</c:v>
+                  <c:v>3.9954466699616109</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>9241.9643456550548</c:v>
+                  <c:v>5.988746686162747</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>9112.3107931480881</c:v>
+                  <c:v>5.9047318324059965</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>5812.6013754905298</c:v>
+                  <c:v>3.7665366283109858</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>251.45152017446208</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="182">
                   <c:v>1</c:v>
@@ -3837,19 +3837,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1741.4656039902575</c:v>
+                  <c:v>1.128461004057667</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>6874.3049140068269</c:v>
+                  <c:v>4.4545152127518541</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>9453.3507054067304</c:v>
+                  <c:v>6.1257239903500338</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>8768.431112226679</c:v>
+                  <c:v>5.6818995185673273</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>5008.1471384292581</c:v>
+                  <c:v>3.2452543049664673</c:v>
                 </c:pt>
                 <c:pt idx="193">
                   <c:v>1</c:v>
@@ -15121,7 +15121,7 @@
   <dimension ref="A1:H1020"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15150,7 +15150,7 @@
         <v>5</v>
       </c>
       <c r="H1">
-        <v>12</v>
+        <v>7.7759400000000003E-3</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B2" s="1">
         <f>IF(A2*$H$1&lt;1,1,IF(A2*$H$1&gt;10000,10000,A2*$H$1))</f>
-        <v>8079.5675665679355</v>
+        <v>5.2355193852981898</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -15173,7 +15173,7 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B66" si="0">IF(A3*$H$1&lt;1,1,IF(A3*$H$1&gt;10000,10000,A3*$H$1))</f>
-        <v>9597.0700788137929</v>
+        <v>6.218853425720944</v>
       </c>
       <c r="C3" s="1">
         <f>IF(C2*$F$1/Parameters!B3&lt;1,1,IF(C2*$F$1/Parameters!B3&gt;10000,10000,C2*$F$1/Parameters!B3))</f>
@@ -15187,7 +15187,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
-        <v>7811.0323156701179</v>
+        <v>5.0615098853926579</v>
       </c>
       <c r="C4" s="1">
         <f>IF(C3*$F$1/Parameters!B4&lt;1,1,IF(C3*$F$1/Parameters!B4&gt;10000,10000,C3*$F$1/Parameters!B4))</f>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>3213.2616638697145</v>
+        <v>2.0821774918792557</v>
       </c>
       <c r="C5" s="1">
         <f>IF(C4*$F$1/Parameters!B5&lt;1,1,IF(C4*$F$1/Parameters!B5&gt;10000,10000,C4*$F$1/Parameters!B5))</f>
@@ -15313,7 +15313,7 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>4566.1560978757589</v>
+        <v>2.9588463206430027</v>
       </c>
       <c r="C13" s="1">
         <f>IF(C12*$F$1/Parameters!B13&lt;1,1,IF(C12*$F$1/Parameters!B13&gt;10000,10000,C12*$F$1/Parameters!B13))</f>
@@ -15327,7 +15327,7 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>8554.7524633396788</v>
+        <v>5.5434368224817954</v>
       </c>
       <c r="C14" s="1">
         <f>IF(C13*$F$1/Parameters!B14&lt;1,1,IF(C13*$F$1/Parameters!B14&gt;10000,10000,C13*$F$1/Parameters!B14))</f>
@@ -15341,7 +15341,7 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>9526.8234828798413</v>
+        <v>6.1733339827887237</v>
       </c>
       <c r="C15" s="1">
         <f>IF(C14*$F$1/Parameters!B15&lt;1,1,IF(C14*$F$1/Parameters!B15&gt;10000,10000,C14*$F$1/Parameters!B15))</f>
@@ -15355,7 +15355,7 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>7214.6974881227434</v>
+        <v>4.6750878988160975</v>
       </c>
       <c r="C16" s="1">
         <f>IF(C15*$F$1/Parameters!B16&lt;1,1,IF(C15*$F$1/Parameters!B16&gt;10000,10000,C15*$F$1/Parameters!B16))</f>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>2255.046707810623</v>
+        <v>1.4612589914277447</v>
       </c>
       <c r="C17" s="1">
         <f>IF(C16*$F$1/Parameters!B17&lt;1,1,IF(C16*$F$1/Parameters!B17&gt;10000,10000,C16*$F$1/Parameters!B17))</f>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
-        <v>5401.5302828987478</v>
+        <v>3.5001646156669746</v>
       </c>
       <c r="C25" s="1">
         <f>IF(C24*$F$1/Parameters!B25&lt;1,1,IF(C24*$F$1/Parameters!B25&gt;10000,10000,C24*$F$1/Parameters!B25))</f>
@@ -15495,7 +15495,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
-        <v>8944.3987643525015</v>
+        <v>5.7959256773065997</v>
       </c>
       <c r="C26" s="1">
         <f>IF(C25*$F$1/Parameters!B26&lt;1,1,IF(C25*$F$1/Parameters!B26&gt;10000,10000,C25*$F$1/Parameters!B26))</f>
@@ -15509,7 +15509,7 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>9363.4480156177415</v>
+        <v>6.0674674968802176</v>
       </c>
       <c r="C27" s="1">
         <f>IF(C26*$F$1/Parameters!B27&lt;1,1,IF(C26*$F$1/Parameters!B27&gt;10000,10000,C26*$F$1/Parameters!B27))</f>
@@ -15523,7 +15523,7 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
-        <v>6543.2876897320639</v>
+        <v>4.2400177065079294</v>
       </c>
       <c r="C28" s="1">
         <f>IF(C27*$F$1/Parameters!B28&lt;1,1,IF(C27*$F$1/Parameters!B28&gt;10000,10000,C27*$F$1/Parameters!B28))</f>
@@ -15537,7 +15537,7 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
-        <v>1260.4834946904193</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1">
         <f>IF(C28*$F$1/Parameters!B29&lt;1,1,IF(C28*$F$1/Parameters!B29&gt;10000,10000,C28*$F$1/Parameters!B29))</f>
@@ -15635,7 +15635,7 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" si="0"/>
-        <v>745.00750821716065</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1">
         <f>IF(C35*$F$1/Parameters!B36&lt;1,1,IF(C35*$F$1/Parameters!B36&gt;10000,10000,C35*$F$1/Parameters!B36))</f>
@@ -15649,7 +15649,7 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" si="0"/>
-        <v>6175.987350222993</v>
+        <v>4.0020089230077485</v>
       </c>
       <c r="C37" s="1">
         <f>IF(C36*$F$1/Parameters!B37&lt;1,1,IF(C36*$F$1/Parameters!B37&gt;10000,10000,C36*$F$1/Parameters!B37))</f>
@@ -15663,7 +15663,7 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" si="0"/>
-        <v>9245.4639729783084</v>
+        <v>5.9910144271700796</v>
       </c>
       <c r="C38" s="1">
         <f>IF(C37*$F$1/Parameters!B38&lt;1,1,IF(C37*$F$1/Parameters!B38&gt;10000,10000,C37*$F$1/Parameters!B38))</f>
@@ -15677,7 +15677,7 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" si="0"/>
-        <v>9108.2193706680191</v>
+        <v>5.9020806110960224</v>
       </c>
       <c r="C39" s="1">
         <f>IF(C38*$F$1/Parameters!B39&lt;1,1,IF(C38*$F$1/Parameters!B39&gt;10000,10000,C38*$F$1/Parameters!B39))</f>
@@ -15691,7 +15691,7 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" si="0"/>
-        <v>5802.0455265291439</v>
+        <v>3.7596964909632526</v>
       </c>
       <c r="C40" s="1">
         <f>IF(C39*$F$1/Parameters!B40&lt;1,1,IF(C39*$F$1/Parameters!B40&gt;10000,10000,C39*$F$1/Parameters!B40))</f>
@@ -15705,7 +15705,7 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" si="0"/>
-        <v>237.33792710968828</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1">
         <f>IF(C40*$F$1/Parameters!B41&lt;1,1,IF(C40*$F$1/Parameters!B41&gt;10000,10000,C40*$F$1/Parameters!B41))</f>
@@ -15803,7 +15803,7 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" si="0"/>
-        <v>1755.0428544683364</v>
+        <v>1.1372589944812097</v>
       </c>
       <c r="C48" s="1">
         <f>IF(C47*$F$1/Parameters!B48&lt;1,1,IF(C47*$F$1/Parameters!B48&gt;10000,10000,C47*$F$1/Parameters!B48))</f>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" si="0"/>
-        <v>6883.4800641636912</v>
+        <v>4.4604606641777513</v>
       </c>
       <c r="C49" s="1">
         <f>IF(C48*$F$1/Parameters!B49&lt;1,1,IF(C48*$F$1/Parameters!B49&gt;10000,10000,C48*$F$1/Parameters!B49))</f>
@@ -15831,7 +15831,7 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" si="0"/>
-        <v>9455.5972652013224</v>
+        <v>6.1271797498641307</v>
       </c>
       <c r="C50" s="1">
         <f>IF(C49*$F$1/Parameters!B50&lt;1,1,IF(C49*$F$1/Parameters!B50&gt;10000,10000,C49*$F$1/Parameters!B50))</f>
@@ -15845,7 +15845,7 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" si="0"/>
-        <v>8763.130463887017</v>
+        <v>5.6784647249464681</v>
       </c>
       <c r="C51" s="1">
         <f>IF(C50*$F$1/Parameters!B51&lt;1,1,IF(C50*$F$1/Parameters!B51&gt;10000,10000,C50*$F$1/Parameters!B51))</f>
@@ -15859,7 +15859,7 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" si="0"/>
-        <v>4996.7588804373627</v>
+        <v>3.2378747707290088</v>
       </c>
       <c r="C52" s="1">
         <f>IF(C51*$F$1/Parameters!B52&lt;1,1,IF(C51*$F$1/Parameters!B52&gt;10000,10000,C51*$F$1/Parameters!B52))</f>
@@ -15971,7 +15971,7 @@
       </c>
       <c r="B60" s="1">
         <f t="shared" si="0"/>
-        <v>2732.634151227865</v>
+        <v>1.7707332668249005</v>
       </c>
       <c r="C60" s="1">
         <f>IF(C59*$F$1/Parameters!B60&lt;1,1,IF(C59*$F$1/Parameters!B60&gt;10000,10000,C59*$F$1/Parameters!B60))</f>
@@ -15985,7 +15985,7 @@
       </c>
       <c r="B61" s="1">
         <f t="shared" si="0"/>
-        <v>7518.4840704770859</v>
+        <v>4.8719400852487995</v>
       </c>
       <c r="C61" s="1">
         <f>IF(C60*$F$1/Parameters!B61&lt;1,1,IF(C60*$F$1/Parameters!B61&gt;10000,10000,C60*$F$1/Parameters!B61))</f>
@@ -15999,7 +15999,7 @@
       </c>
       <c r="B62" s="1">
         <f t="shared" si="0"/>
-        <v>9573.1578456864499</v>
+        <v>6.2033584182155916</v>
       </c>
       <c r="C62" s="1">
         <f>IF(C61*$F$1/Parameters!B62&lt;1,1,IF(C61*$F$1/Parameters!B62&gt;10000,10000,C61*$F$1/Parameters!B62))</f>
@@ -16013,7 +16013,7 @@
       </c>
       <c r="B63" s="1">
         <f t="shared" si="0"/>
-        <v>8330.8758719524631</v>
+        <v>5.398365910645837</v>
       </c>
       <c r="C63" s="1">
         <f>IF(C62*$F$1/Parameters!B63&lt;1,1,IF(C62*$F$1/Parameters!B63&gt;10000,10000,C62*$F$1/Parameters!B63))</f>
@@ -16027,7 +16027,7 @@
       </c>
       <c r="B64" s="1">
         <f t="shared" si="0"/>
-        <v>4133.7157154358811</v>
+        <v>2.6786271150238736</v>
       </c>
       <c r="C64" s="1">
         <f>IF(C63*$F$1/Parameters!B64&lt;1,1,IF(C63*$F$1/Parameters!B64&gt;10000,10000,C63*$F$1/Parameters!B64))</f>
@@ -16139,7 +16139,7 @@
       </c>
       <c r="B72" s="1">
         <f t="shared" si="1"/>
-        <v>3670.1480186424965</v>
+        <v>2.3782375653402448</v>
       </c>
       <c r="C72" s="1">
         <f>IF(C71*$F$1/Parameters!B72&lt;1,1,IF(C71*$F$1/Parameters!B72&gt;10000,10000,C71*$F$1/Parameters!B72))</f>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="B73" s="1">
         <f t="shared" si="1"/>
-        <v>8076.0410324793402</v>
+        <v>5.2332342088414503</v>
       </c>
       <c r="C73" s="1">
         <f>IF(C72*$F$1/Parameters!B73&lt;1,1,IF(C72*$F$1/Parameters!B73&gt;10000,10000,C72*$F$1/Parameters!B73))</f>
@@ -16167,7 +16167,7 @@
       </c>
       <c r="B74" s="1">
         <f t="shared" si="1"/>
-        <v>9597.2277596916792</v>
+        <v>6.2189556021414099</v>
       </c>
       <c r="C74" s="1">
         <f>IF(C73*$F$1/Parameters!B74&lt;1,1,IF(C73*$F$1/Parameters!B74&gt;10000,10000,C73*$F$1/Parameters!B74))</f>
@@ -16181,7 +16181,7 @@
       </c>
       <c r="B75" s="1">
         <f t="shared" si="1"/>
-        <v>7814.830792152311</v>
+        <v>5.0639712791607367</v>
       </c>
       <c r="C75" s="1">
         <f>IF(C74*$F$1/Parameters!B75&lt;1,1,IF(C74*$F$1/Parameters!B75&gt;10000,10000,C74*$F$1/Parameters!B75))</f>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="B76" s="1">
         <f t="shared" si="1"/>
-        <v>3219.6549789049022</v>
+        <v>2.0863203280554821</v>
       </c>
       <c r="C76" s="1">
         <f>IF(C75*$F$1/Parameters!B76&lt;1,1,IF(C75*$F$1/Parameters!B76&gt;10000,10000,C75*$F$1/Parameters!B76))</f>
@@ -16307,7 +16307,7 @@
       </c>
       <c r="B84" s="1">
         <f t="shared" si="1"/>
-        <v>4560.2640156532907</v>
+        <v>2.9550282808232544</v>
       </c>
       <c r="C84" s="1">
         <f>IF(C83*$F$1/Parameters!B84&lt;1,1,IF(C83*$F$1/Parameters!B84&gt;10000,10000,C83*$F$1/Parameters!B84))</f>
@@ -16321,7 +16321,7 @@
       </c>
       <c r="B85" s="1">
         <f t="shared" si="1"/>
-        <v>8551.7973474993832</v>
+        <v>5.5415219221928629</v>
       </c>
       <c r="C85" s="1">
         <f>IF(C84*$F$1/Parameters!B85&lt;1,1,IF(C84*$F$1/Parameters!B85&gt;10000,10000,C84*$F$1/Parameters!B85))</f>
@@ -16335,7 +16335,7 @@
       </c>
       <c r="B86" s="1">
         <f t="shared" si="1"/>
-        <v>9527.6190607845419</v>
+        <v>6.1738495132930789</v>
       </c>
       <c r="C86" s="1">
         <f>IF(C85*$F$1/Parameters!B86&lt;1,1,IF(C85*$F$1/Parameters!B86&gt;10000,10000,C85*$F$1/Parameters!B86))</f>
@@ -16349,7 +16349,7 @@
       </c>
       <c r="B87" s="1">
         <f t="shared" si="1"/>
-        <v>7219.0246876462352</v>
+        <v>4.6778919024713224</v>
       </c>
       <c r="C87" s="1">
         <f>IF(C86*$F$1/Parameters!B87&lt;1,1,IF(C86*$F$1/Parameters!B87&gt;10000,10000,C86*$F$1/Parameters!B87))</f>
@@ -16363,7 +16363,7 @@
       </c>
       <c r="B88" s="1">
         <f t="shared" si="1"/>
-        <v>2261.713981532444</v>
+        <v>1.4655793514631161</v>
       </c>
       <c r="C88" s="1">
         <f>IF(C87*$F$1/Parameters!B88&lt;1,1,IF(C87*$F$1/Parameters!B88&gt;10000,10000,C87*$F$1/Parameters!B88))</f>
@@ -16475,7 +16475,7 @@
       </c>
       <c r="B96" s="1">
         <f t="shared" si="1"/>
-        <v>5396.0318005978843</v>
+        <v>3.4966016266284261</v>
       </c>
       <c r="C96" s="1">
         <f>IF(C95*$F$1/Parameters!B96&lt;1,1,IF(C95*$F$1/Parameters!B96&gt;10000,10000,C95*$F$1/Parameters!B96))</f>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="B97" s="1">
         <f t="shared" si="1"/>
-        <v>8942.0381413539399</v>
+        <v>5.7943960054066475</v>
       </c>
       <c r="C97" s="1">
         <f>IF(C96*$F$1/Parameters!B97&lt;1,1,IF(C96*$F$1/Parameters!B97&gt;10000,10000,C96*$F$1/Parameters!B97))</f>
@@ -16503,7 +16503,7 @@
       </c>
       <c r="B98" s="1">
         <f t="shared" si="1"/>
-        <v>9364.8752783945747</v>
+        <v>6.068392356023292</v>
       </c>
       <c r="C98" s="1">
         <f>IF(C97*$F$1/Parameters!B98&lt;1,1,IF(C97*$F$1/Parameters!B98&gt;10000,10000,C97*$F$1/Parameters!B98))</f>
@@ -16517,7 +16517,7 @@
       </c>
       <c r="B99" s="1">
         <f t="shared" si="1"/>
-        <v>6548.1098239869816</v>
+        <v>4.2431424253944439</v>
       </c>
       <c r="C99" s="1">
         <f>IF(C98*$F$1/Parameters!B99&lt;1,1,IF(C98*$F$1/Parameters!B99&gt;10000,10000,C98*$F$1/Parameters!B99))</f>
@@ -16531,7 +16531,7 @@
       </c>
       <c r="B100" s="1">
         <f t="shared" si="1"/>
-        <v>1267.3726666590246</v>
+        <v>1</v>
       </c>
       <c r="C100" s="1">
         <f>IF(C99*$F$1/Parameters!B100&lt;1,1,IF(C99*$F$1/Parameters!B100&gt;10000,10000,C99*$F$1/Parameters!B100))</f>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="B107" s="1">
         <f t="shared" si="1"/>
-        <v>738.02517873086799</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1">
         <f>IF(C106*$F$1/Parameters!B107&lt;1,1,IF(C106*$F$1/Parameters!B107&gt;10000,10000,C106*$F$1/Parameters!B107))</f>
@@ -16643,7 +16643,7 @@
       </c>
       <c r="B108" s="1">
         <f t="shared" si="1"/>
-        <v>6170.925401945291</v>
+        <v>3.9987288058335388</v>
       </c>
       <c r="C108" s="1">
         <f>IF(C107*$F$1/Parameters!B108&lt;1,1,IF(C107*$F$1/Parameters!B108&gt;10000,10000,C107*$F$1/Parameters!B108))</f>
@@ -16657,7 +16657,7 @@
       </c>
       <c r="B109" s="1">
         <f t="shared" si="1"/>
-        <v>9243.716275403789</v>
+        <v>5.989881927880278</v>
       </c>
       <c r="C109" s="1">
         <f>IF(C108*$F$1/Parameters!B109&lt;1,1,IF(C108*$F$1/Parameters!B109&gt;10000,10000,C108*$F$1/Parameters!B109))</f>
@@ -16671,7 +16671,7 @@
       </c>
       <c r="B110" s="1">
         <f t="shared" si="1"/>
-        <v>9110.2671737426008</v>
+        <v>5.9034075772493368</v>
       </c>
       <c r="C110" s="1">
         <f>IF(C109*$F$1/Parameters!B110&lt;1,1,IF(C109*$F$1/Parameters!B110&gt;10000,10000,C109*$F$1/Parameters!B110))</f>
@@ -16685,7 +16685,7 @@
       </c>
       <c r="B111" s="1">
         <f t="shared" si="1"/>
-        <v>5807.3249425795457</v>
+        <v>3.763117526166833</v>
       </c>
       <c r="C111" s="1">
         <f>IF(C110*$F$1/Parameters!B111&lt;1,1,IF(C110*$F$1/Parameters!B111&gt;10000,10000,C110*$F$1/Parameters!B111))</f>
@@ -16699,7 +16699,7 @@
       </c>
       <c r="B112" s="1">
         <f t="shared" si="1"/>
-        <v>244.3952042249457</v>
+        <v>1</v>
       </c>
       <c r="C112" s="1">
         <f>IF(C111*$F$1/Parameters!B112&lt;1,1,IF(C111*$F$1/Parameters!B112&gt;10000,10000,C111*$F$1/Parameters!B112))</f>
@@ -16797,7 +16797,7 @@
       </c>
       <c r="B119" s="1">
         <f t="shared" si="1"/>
-        <v>1748.2549831182341</v>
+        <v>1.1328604877857003</v>
       </c>
       <c r="C119" s="1">
         <f>IF(C118*$F$1/Parameters!B119&lt;1,1,IF(C118*$F$1/Parameters!B119&gt;10000,10000,C118*$F$1/Parameters!B119))</f>
@@ -16811,7 +16811,7 @@
       </c>
       <c r="B120" s="1">
         <f t="shared" si="1"/>
-        <v>6878.8941753981053</v>
+        <v>4.4574890311870954</v>
       </c>
       <c r="C120" s="1">
         <f>IF(C119*$F$1/Parameters!B120&lt;1,1,IF(C119*$F$1/Parameters!B120&gt;10000,10000,C119*$F$1/Parameters!B120))</f>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="B121" s="1">
         <f t="shared" si="1"/>
-        <v>9454.476139693872</v>
+        <v>6.1264532661409312</v>
       </c>
       <c r="C121" s="1">
         <f>IF(C120*$F$1/Parameters!B121&lt;1,1,IF(C120*$F$1/Parameters!B121&gt;10000,10000,C120*$F$1/Parameters!B121))</f>
@@ -16839,7 +16839,7 @@
       </c>
       <c r="B122" s="1">
         <f t="shared" si="1"/>
-        <v>8765.7828172860482</v>
+        <v>5.6801834366872725</v>
       </c>
       <c r="C122" s="1">
         <f>IF(C121*$F$1/Parameters!B122&lt;1,1,IF(C121*$F$1/Parameters!B122&gt;10000,10000,C121*$F$1/Parameters!B122))</f>
@@ -16853,7 +16853,7 @@
       </c>
       <c r="B123" s="1">
         <f t="shared" si="1"/>
-        <v>5002.454354728734</v>
+        <v>3.2415654095924462</v>
       </c>
       <c r="C123" s="1">
         <f>IF(C122*$F$1/Parameters!B123&lt;1,1,IF(C122*$F$1/Parameters!B123&gt;10000,10000,C122*$F$1/Parameters!B123))</f>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="B131" s="1">
         <f t="shared" ref="B131:B194" si="2">IF(A131*$H$1&lt;1,1,IF(A131*$H$1&gt;10000,10000,A131*$H$1))</f>
-        <v>2726.0937401228925</v>
+        <v>1.7664951131309339</v>
       </c>
       <c r="C131" s="1">
         <f>IF(C130*$F$1/Parameters!B131&lt;1,1,IF(C130*$F$1/Parameters!B131&gt;10000,10000,C130*$F$1/Parameters!B131))</f>
@@ -16979,7 +16979,7 @@
       </c>
       <c r="B132" s="1">
         <f t="shared" si="2"/>
-        <v>7514.4100494709164</v>
+        <v>4.8693001400069065</v>
       </c>
       <c r="C132" s="1">
         <f>IF(C131*$F$1/Parameters!B132&lt;1,1,IF(C131*$F$1/Parameters!B132&gt;10000,10000,C131*$F$1/Parameters!B132))</f>
@@ -16993,7 +16993,7 @@
       </c>
       <c r="B133" s="1">
         <f t="shared" si="2"/>
-        <v>9572.6720463919901</v>
+        <v>6.2030436227017773</v>
       </c>
       <c r="C133" s="1">
         <f>IF(C132*$F$1/Parameters!B133&lt;1,1,IF(C132*$F$1/Parameters!B133&gt;10000,10000,C132*$F$1/Parameters!B133))</f>
@@ -17007,7 +17007,7 @@
       </c>
       <c r="B134" s="1">
         <f t="shared" si="2"/>
-        <v>8334.1120651591191</v>
+        <v>5.400462947662783</v>
       </c>
       <c r="C134" s="1">
         <f>IF(C133*$F$1/Parameters!B134&lt;1,1,IF(C133*$F$1/Parameters!B134&gt;10000,10000,C133*$F$1/Parameters!B134))</f>
@@ -17021,7 +17021,7 @@
       </c>
       <c r="B135" s="1">
         <f t="shared" si="2"/>
-        <v>4139.7827756832776</v>
+        <v>2.6825585397288854</v>
       </c>
       <c r="C135" s="1">
         <f>IF(C134*$F$1/Parameters!B135&lt;1,1,IF(C134*$F$1/Parameters!B135&gt;10000,10000,C134*$F$1/Parameters!B135))</f>
@@ -17133,7 +17133,7 @@
       </c>
       <c r="B143" s="1">
         <f t="shared" si="2"/>
-        <v>3663.9061376341615</v>
+        <v>2.3741928576562485</v>
       </c>
       <c r="C143" s="1">
         <f>IF(C142*$F$1/Parameters!B143&lt;1,1,IF(C142*$F$1/Parameters!B143&gt;10000,10000,C142*$F$1/Parameters!B143))</f>
@@ -17147,7 +17147,7 @@
       </c>
       <c r="B144" s="1">
         <f t="shared" si="2"/>
-        <v>8072.5106906347246</v>
+        <v>5.2309465649778488</v>
       </c>
       <c r="C144" s="1">
         <f>IF(C143*$F$1/Parameters!B144&lt;1,1,IF(C143*$F$1/Parameters!B144&gt;10000,10000,C143*$F$1/Parameters!B144))</f>
@@ -17161,7 +17161,7 @@
       </c>
       <c r="B145" s="1">
         <f t="shared" si="2"/>
-        <v>9597.3810799035382</v>
+        <v>6.2190549528720931</v>
       </c>
       <c r="C145" s="1">
         <f>IF(C144*$F$1/Parameters!B145&lt;1,1,IF(C144*$F$1/Parameters!B145&gt;10000,10000,C144*$F$1/Parameters!B145))</f>
@@ -17175,7 +17175,7 @@
       </c>
       <c r="B146" s="1">
         <f t="shared" si="2"/>
-        <v>7818.625555821307</v>
+        <v>5.0664302670444279</v>
       </c>
       <c r="C146" s="1">
         <f>IF(C145*$F$1/Parameters!B146&lt;1,1,IF(C145*$F$1/Parameters!B146&gt;10000,10000,C145*$F$1/Parameters!B146))</f>
@@ -17189,7 +17189,7 @@
       </c>
       <c r="B147" s="1">
         <f t="shared" si="2"/>
-        <v>3226.0462513483326</v>
+        <v>2.0904618406424627</v>
       </c>
       <c r="C147" s="1">
         <f>IF(C146*$F$1/Parameters!B147&lt;1,1,IF(C146*$F$1/Parameters!B147&gt;10000,10000,C146*$F$1/Parameters!B147))</f>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="B155" s="1">
         <f t="shared" si="2"/>
-        <v>4554.3694035641402</v>
+        <v>2.951208601662545</v>
       </c>
       <c r="C155" s="1">
         <f>IF(C154*$F$1/Parameters!B155&lt;1,1,IF(C154*$F$1/Parameters!B155&gt;10000,10000,C154*$F$1/Parameters!B155))</f>
@@ -17315,7 +17315,7 @@
       </c>
       <c r="B156" s="1">
         <f t="shared" si="2"/>
-        <v>8548.8382509785861</v>
+        <v>5.5396044424428696</v>
       </c>
       <c r="C156" s="1">
         <f>IF(C155*$F$1/Parameters!B156&lt;1,1,IF(C155*$F$1/Parameters!B156&gt;10000,10000,C155*$F$1/Parameters!B156))</f>
@@ -17329,7 +17329,7 @@
       </c>
       <c r="B157" s="1">
         <f t="shared" si="2"/>
-        <v>9528.4103033240845</v>
+        <v>6.1743622345024907</v>
       </c>
       <c r="C157" s="1">
         <f>IF(C156*$F$1/Parameters!B157&lt;1,1,IF(C156*$F$1/Parameters!B157&gt;10000,10000,C156*$F$1/Parameters!B157))</f>
@@ -17343,7 +17343,7 @@
       </c>
       <c r="B158" s="1">
         <f t="shared" si="2"/>
-        <v>7223.3483909158422</v>
+        <v>4.6806936405715112</v>
       </c>
       <c r="C158" s="1">
         <f>IF(C157*$F$1/Parameters!B158&lt;1,1,IF(C157*$F$1/Parameters!B158&gt;10000,10000,C157*$F$1/Parameters!B158))</f>
@@ -17357,7 +17357,7 @@
       </c>
       <c r="B159" s="1">
         <f t="shared" si="2"/>
-        <v>2268.3795608480095</v>
+        <v>1.469898613531706</v>
       </c>
       <c r="C159" s="1">
         <f>IF(C158*$F$1/Parameters!B159&lt;1,1,IF(C158*$F$1/Parameters!B159&gt;10000,10000,C158*$F$1/Parameters!B159))</f>
@@ -17469,7 +17469,7 @@
       </c>
       <c r="B167" s="1">
         <f t="shared" si="2"/>
-        <v>5390.5304846514746</v>
+        <v>3.4930368014017326</v>
       </c>
       <c r="C167" s="1">
         <f>IF(C166*$F$1/Parameters!B167&lt;1,1,IF(C166*$F$1/Parameters!B167&gt;10000,10000,C166*$F$1/Parameters!B167))</f>
@@ -17483,7 +17483,7 @@
       </c>
       <c r="B168" s="1">
         <f t="shared" si="2"/>
-        <v>8939.6733958329642</v>
+        <v>5.792863662132782</v>
       </c>
       <c r="C168" s="1">
         <f>IF(C167*$F$1/Parameters!B168&lt;1,1,IF(C167*$F$1/Parameters!B168&gt;10000,10000,C167*$F$1/Parameters!B168))</f>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="B169" s="1">
         <f t="shared" si="2"/>
-        <v>9366.2982649591922</v>
+        <v>6.0693144442022318</v>
       </c>
       <c r="C169" s="1">
         <f>IF(C168*$F$1/Parameters!B169&lt;1,1,IF(C168*$F$1/Parameters!B169&gt;10000,10000,C168*$F$1/Parameters!B169))</f>
@@ -17511,7 +17511,7 @@
       </c>
       <c r="B170" s="1">
         <f t="shared" si="2"/>
-        <v>6552.9287058473192</v>
+        <v>4.2462650367455339</v>
       </c>
       <c r="C170" s="1">
         <f>IF(C169*$F$1/Parameters!B170&lt;1,1,IF(C169*$F$1/Parameters!B170&gt;10000,10000,C169*$F$1/Parameters!B170))</f>
@@ -17525,7 +17525,7 @@
       </c>
       <c r="B171" s="1">
         <f t="shared" si="2"/>
-        <v>1274.2605056373968</v>
+        <v>1</v>
       </c>
       <c r="C171" s="1">
         <f>IF(C170*$F$1/Parameters!B171&lt;1,1,IF(C170*$F$1/Parameters!B171&gt;10000,10000,C170*$F$1/Parameters!B171))</f>
@@ -17623,7 +17623,7 @@
       </c>
       <c r="B178" s="1">
         <f t="shared" si="2"/>
-        <v>731.04170865776177</v>
+        <v>1</v>
       </c>
       <c r="C178" s="1">
         <f>IF(C177*$F$1/Parameters!B178&lt;1,1,IF(C177*$F$1/Parameters!B178&gt;10000,10000,C177*$F$1/Parameters!B178))</f>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="B179" s="1">
         <f t="shared" si="2"/>
-        <v>6165.8603383692935</v>
+        <v>3.9954466699616109</v>
       </c>
       <c r="C179" s="1">
         <f>IF(C178*$F$1/Parameters!B179&lt;1,1,IF(C178*$F$1/Parameters!B179&gt;10000,10000,C178*$F$1/Parameters!B179))</f>
@@ -17651,7 +17651,7 @@
       </c>
       <c r="B180" s="1">
         <f t="shared" si="2"/>
-        <v>9241.9643456550548</v>
+        <v>5.988746686162747</v>
       </c>
       <c r="C180" s="1">
         <f>IF(C179*$F$1/Parameters!B180&lt;1,1,IF(C179*$F$1/Parameters!B180&gt;10000,10000,C179*$F$1/Parameters!B180))</f>
@@ -17665,7 +17665,7 @@
       </c>
       <c r="B181" s="1">
         <f t="shared" si="2"/>
-        <v>9112.3107931480881</v>
+        <v>5.9047318324059965</v>
       </c>
       <c r="C181" s="1">
         <f>IF(C180*$F$1/Parameters!B181&lt;1,1,IF(C180*$F$1/Parameters!B181&gt;10000,10000,C180*$F$1/Parameters!B181))</f>
@@ -17679,7 +17679,7 @@
       </c>
       <c r="B182" s="1">
         <f t="shared" si="2"/>
-        <v>5812.6013754905298</v>
+        <v>3.7665366283109858</v>
       </c>
       <c r="C182" s="1">
         <f>IF(C181*$F$1/Parameters!B182&lt;1,1,IF(C181*$F$1/Parameters!B182&gt;10000,10000,C181*$F$1/Parameters!B182))</f>
@@ -17693,7 +17693,7 @@
       </c>
       <c r="B183" s="1">
         <f t="shared" si="2"/>
-        <v>251.45152017446208</v>
+        <v>1</v>
       </c>
       <c r="C183" s="1">
         <f>IF(C182*$F$1/Parameters!B183&lt;1,1,IF(C182*$F$1/Parameters!B183&gt;10000,10000,C182*$F$1/Parameters!B183))</f>
@@ -17791,7 +17791,7 @@
       </c>
       <c r="B190" s="1">
         <f t="shared" si="2"/>
-        <v>1741.4656039902575</v>
+        <v>1.128461004057667</v>
       </c>
       <c r="C190" s="1">
         <f>IF(C189*$F$1/Parameters!B190&lt;1,1,IF(C189*$F$1/Parameters!B190&gt;10000,10000,C189*$F$1/Parameters!B190))</f>
@@ -17805,7 +17805,7 @@
       </c>
       <c r="B191" s="1">
         <f t="shared" si="2"/>
-        <v>6874.3049140068269</v>
+        <v>4.4545152127518541</v>
       </c>
       <c r="C191" s="1">
         <f>IF(C190*$F$1/Parameters!B191&lt;1,1,IF(C190*$F$1/Parameters!B191&gt;10000,10000,C190*$F$1/Parameters!B191))</f>
@@ -17819,7 +17819,7 @@
       </c>
       <c r="B192" s="1">
         <f t="shared" si="2"/>
-        <v>9453.3507054067304</v>
+        <v>6.1257239903500338</v>
       </c>
       <c r="C192" s="1">
         <f>IF(C191*$F$1/Parameters!B192&lt;1,1,IF(C191*$F$1/Parameters!B192&gt;10000,10000,C191*$F$1/Parameters!B192))</f>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="B193" s="1">
         <f t="shared" si="2"/>
-        <v>8768.431112226679</v>
+        <v>5.6818995185673273</v>
       </c>
       <c r="C193" s="1">
         <f>IF(C192*$F$1/Parameters!B193&lt;1,1,IF(C192*$F$1/Parameters!B193&gt;10000,10000,C192*$F$1/Parameters!B193))</f>
@@ -17847,7 +17847,7 @@
       </c>
       <c r="B194" s="1">
         <f t="shared" si="2"/>
-        <v>5008.1471384292581</v>
+        <v>3.2452543049664673</v>
       </c>
       <c r="C194" s="1">
         <f>IF(C193*$F$1/Parameters!B194&lt;1,1,IF(C193*$F$1/Parameters!B194&gt;10000,10000,C193*$F$1/Parameters!B194))</f>
@@ -17959,7 +17959,7 @@
       </c>
       <c r="B202" s="1">
         <f t="shared" si="3"/>
-        <v>2719.5514658222492</v>
+        <v>1.7622557520954885</v>
       </c>
       <c r="C202" s="1">
         <f>IF(C201*$F$1/Parameters!B202&lt;1,1,IF(C201*$F$1/Parameters!B202&gt;10000,10000,C201*$F$1/Parameters!B202))</f>
@@ -17973,7 +17973,7 @@
       </c>
       <c r="B203" s="1">
         <f t="shared" si="3"/>
-        <v>7510.3324248463159</v>
+        <v>4.8666578596382886</v>
       </c>
       <c r="C203" s="1">
         <f>IF(C202*$F$1/Parameters!B203&lt;1,1,IF(C202*$F$1/Parameters!B203&gt;10000,10000,C202*$F$1/Parameters!B203))</f>
@@ -17987,7 +17987,7 @@
       </c>
       <c r="B204" s="1">
         <f t="shared" si="3"/>
-        <v>9572.18189535684</v>
+        <v>6.2027260072817549</v>
       </c>
       <c r="C204" s="1">
         <f>IF(C203*$F$1/Parameters!B204&lt;1,1,IF(C203*$F$1/Parameters!B204&gt;10000,10000,C203*$F$1/Parameters!B204))</f>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="B205" s="1">
         <f t="shared" si="3"/>
-        <v>8337.3443568079547</v>
+        <v>5.4025574564897703</v>
       </c>
       <c r="C205" s="1">
         <f>IF(C204*$F$1/Parameters!B205&lt;1,1,IF(C204*$F$1/Parameters!B205&gt;10000,10000,C204*$F$1/Parameters!B205))</f>
@@ -18015,7 +18015,7 @@
       </c>
       <c r="B206" s="1">
         <f t="shared" si="3"/>
-        <v>4145.8474588974859</v>
+        <v>2.6864884241282763</v>
       </c>
       <c r="C206" s="1">
         <f>IF(C205*$F$1/Parameters!B206&lt;1,1,IF(C205*$F$1/Parameters!B206&gt;10000,10000,C205*$F$1/Parameters!B206))</f>
@@ -18127,7 +18127,7 @@
       </c>
       <c r="B214" s="1">
         <f t="shared" si="3"/>
-        <v>3657.6620525608532</v>
+        <v>2.3701467217491703</v>
       </c>
       <c r="C214" s="1">
         <f>IF(C213*$F$1/Parameters!B214&lt;1,1,IF(C213*$F$1/Parameters!B214&gt;10000,10000,C213*$F$1/Parameters!B214))</f>
@@ -18141,7 +18141,7 @@
       </c>
       <c r="B215" s="1">
         <f t="shared" si="3"/>
-        <v>8068.9765423172776</v>
+        <v>5.2286564545388838</v>
       </c>
       <c r="C215" s="1">
         <f>IF(C214*$F$1/Parameters!B215&lt;1,1,IF(C214*$F$1/Parameters!B215&gt;10000,10000,C214*$F$1/Parameters!B215))</f>
@@ -18155,7 +18155,7 @@
       </c>
       <c r="B216" s="1">
         <f t="shared" si="3"/>
-        <v>9597.5300393936468</v>
+        <v>6.2191514778768857</v>
       </c>
       <c r="C216" s="1">
         <f>IF(C215*$F$1/Parameters!B216&lt;1,1,IF(C215*$F$1/Parameters!B216&gt;10000,10000,C215*$F$1/Parameters!B216))</f>
@@ -18169,7 +18169,7 @@
       </c>
       <c r="B217" s="1">
         <f t="shared" si="3"/>
-        <v>7822.416605297808</v>
+        <v>5.0688868481499529</v>
       </c>
       <c r="C217" s="1">
         <f>IF(C216*$F$1/Parameters!B217&lt;1,1,IF(C216*$F$1/Parameters!B217&gt;10000,10000,C216*$F$1/Parameters!B217))</f>
@@ -18183,7 +18183,7 @@
       </c>
       <c r="B218" s="1">
         <f t="shared" si="3"/>
-        <v>3232.4354788769524</v>
+        <v>2.094602028134871</v>
       </c>
       <c r="C218" s="1">
         <f>IF(C217*$F$1/Parameters!B218&lt;1,1,IF(C217*$F$1/Parameters!B218&gt;10000,10000,C217*$F$1/Parameters!B218))</f>
@@ -18295,7 +18295,7 @@
       </c>
       <c r="B226" s="1">
         <f t="shared" si="3"/>
-        <v>4548.4722637508366</v>
+        <v>2.9473872845492233</v>
       </c>
       <c r="C226" s="1">
         <f>IF(C225*$F$1/Parameters!B226&lt;1,1,IF(C225*$F$1/Parameters!B226&gt;10000,10000,C225*$F$1/Parameters!B226))</f>
@@ -18309,7 +18309,7 @@
       </c>
       <c r="B227" s="1">
         <f t="shared" si="3"/>
-        <v>8545.8751748528412</v>
+        <v>5.5376843839287666</v>
       </c>
       <c r="C227" s="1">
         <f>IF(C226*$F$1/Parameters!B227&lt;1,1,IF(C226*$F$1/Parameters!B227&gt;10000,10000,C226*$F$1/Parameters!B227))</f>
@@ -18323,7 +18323,7 @@
       </c>
       <c r="B228" s="1">
         <f t="shared" si="3"/>
-        <v>9529.1972102108775</v>
+        <v>6.174872146230598</v>
       </c>
       <c r="C228" s="1">
         <f>IF(C227*$F$1/Parameters!B228&lt;1,1,IF(C227*$F$1/Parameters!B228&gt;10000,10000,C227*$F$1/Parameters!B228))</f>
@@ -18337,7 +18337,7 @@
       </c>
       <c r="B229" s="1">
         <f t="shared" si="3"/>
-        <v>7227.6685963600175</v>
+        <v>4.6834931120983097</v>
       </c>
       <c r="C229" s="1">
         <f>IF(C228*$F$1/Parameters!B229&lt;1,1,IF(C228*$F$1/Parameters!B229&gt;10000,10000,C228*$F$1/Parameters!B229))</f>
@@ -18351,7 +18351,7 @@
       </c>
       <c r="B230" s="1">
         <f t="shared" si="3"/>
-        <v>2275.0434433345608</v>
+        <v>1.4742167760635787</v>
       </c>
       <c r="C230" s="1">
         <f>IF(C229*$F$1/Parameters!B230&lt;1,1,IF(C229*$F$1/Parameters!B230&gt;10000,10000,C229*$F$1/Parameters!B230))</f>
@@ -18463,7 +18463,7 @@
       </c>
       <c r="B238" s="1">
         <f t="shared" si="3"/>
-        <v>5385.0263370590983</v>
+        <v>3.4894701412826103</v>
       </c>
       <c r="C238" s="1">
         <f>IF(C237*$F$1/Parameters!B238&lt;1,1,IF(C237*$F$1/Parameters!B238&gt;10000,10000,C237*$F$1/Parameters!B238))</f>
@@ -18477,7 +18477,7 @@
       </c>
       <c r="B239" s="1">
         <f t="shared" si="3"/>
-        <v>8937.3045286490924</v>
+        <v>5.7913286480419686</v>
       </c>
       <c r="C239" s="1">
         <f>IF(C238*$F$1/Parameters!B239&lt;1,1,IF(C238*$F$1/Parameters!B239&gt;10000,10000,C238*$F$1/Parameters!B239))</f>
@@ -18491,7 +18491,7 @@
       </c>
       <c r="B240" s="1">
         <f t="shared" si="3"/>
-        <v>9367.7169747943753</v>
+        <v>6.0702337610818811</v>
       </c>
       <c r="C240" s="1">
         <f>IF(C239*$F$1/Parameters!B240&lt;1,1,IF(C239*$F$1/Parameters!B240&gt;10000,10000,C239*$F$1/Parameters!B240))</f>
@@ -18505,7 +18505,7 @@
       </c>
       <c r="B241" s="1">
         <f t="shared" si="3"/>
-        <v>6557.7443335615517</v>
+        <v>4.2493855394262177</v>
       </c>
       <c r="C241" s="1">
         <f>IF(C240*$F$1/Parameters!B241&lt;1,1,IF(C240*$F$1/Parameters!B241&gt;10000,10000,C240*$F$1/Parameters!B241))</f>
@@ -18519,7 +18519,7 @@
       </c>
       <c r="B242" s="1">
         <f t="shared" si="3"/>
-        <v>1281.147009121999</v>
+        <v>1</v>
       </c>
       <c r="C242" s="1">
         <f>IF(C241*$F$1/Parameters!B242&lt;1,1,IF(C241*$F$1/Parameters!B242&gt;10000,10000,C241*$F$1/Parameters!B242))</f>
@@ -18617,7 +18617,7 @@
       </c>
       <c r="B249" s="1">
         <f t="shared" si="3"/>
-        <v>724.05710053614257</v>
+        <v>1</v>
       </c>
       <c r="C249" s="1">
         <f>IF(C248*$F$1/Parameters!B249&lt;1,1,IF(C248*$F$1/Parameters!B249&gt;10000,10000,C248*$F$1/Parameters!B249))</f>
@@ -18631,7 +18631,7 @@
       </c>
       <c r="B250" s="1">
         <f t="shared" si="3"/>
-        <v>6160.7921613360122</v>
+        <v>3.9921625165849295</v>
       </c>
       <c r="C250" s="1">
         <f>IF(C249*$F$1/Parameters!B250&lt;1,1,IF(C249*$F$1/Parameters!B250&gt;10000,10000,C249*$F$1/Parameters!B250))</f>
@@ -18645,7 +18645,7 @@
       </c>
       <c r="B251" s="1">
         <f t="shared" si="3"/>
-        <v>9240.2081843688866</v>
+        <v>5.9876087024301166</v>
       </c>
       <c r="C251" s="1">
         <f>IF(C250*$F$1/Parameters!B251&lt;1,1,IF(C250*$F$1/Parameters!B251&gt;10000,10000,C250*$F$1/Parameters!B251))</f>
@@ -18659,7 +18659,7 @@
       </c>
       <c r="B252" s="1">
         <f t="shared" si="3"/>
-        <v>9114.3502281416841</v>
+        <v>5.9060533760846701</v>
       </c>
       <c r="C252" s="1">
         <f>IF(C251*$F$1/Parameters!B252&lt;1,1,IF(C251*$F$1/Parameters!B252&gt;10000,10000,C251*$F$1/Parameters!B252))</f>
@@ -18673,7 +18673,7 @@
       </c>
       <c r="B253" s="1">
         <f t="shared" si="3"/>
-        <v>5817.8748233442566</v>
+        <v>3.7699537961529619</v>
       </c>
       <c r="C253" s="1">
         <f>IF(C252*$F$1/Parameters!B253&lt;1,1,IF(C252*$F$1/Parameters!B253&gt;10000,10000,C252*$F$1/Parameters!B253))</f>
@@ -18687,7 +18687,7 @@
       </c>
       <c r="B254" s="1">
         <f t="shared" si="3"/>
-        <v>258.50687239345552</v>
+        <v>1</v>
       </c>
       <c r="C254" s="1">
         <f>IF(C253*$F$1/Parameters!B254&lt;1,1,IF(C253*$F$1/Parameters!B254&gt;10000,10000,C253*$F$1/Parameters!B254))</f>
@@ -18785,7 +18785,7 @@
       </c>
       <c r="B261" s="1">
         <f t="shared" si="4"/>
-        <v>1734.6747195521607</v>
+        <v>1.1240605448962024</v>
       </c>
       <c r="C261" s="1">
         <f>IF(C260*$F$1/Parameters!B261&lt;1,1,IF(C260*$F$1/Parameters!B261&gt;10000,10000,C260*$F$1/Parameters!B261))</f>
@@ -18799,7 +18799,7 @@
       </c>
       <c r="B262" s="1">
         <f t="shared" si="4"/>
-        <v>6869.7122816579304</v>
+        <v>4.4515392099529301</v>
       </c>
       <c r="C262" s="1">
         <f>IF(C261*$F$1/Parameters!B262&lt;1,1,IF(C261*$F$1/Parameters!B262&gt;10000,10000,C261*$F$1/Parameters!B262))</f>
@@ -18813,7 +18813,7 @@
       </c>
       <c r="B263" s="1">
         <f t="shared" si="4"/>
-        <v>9452.2209627489574</v>
+        <v>6.1249919227565117</v>
       </c>
       <c r="C263" s="1">
         <f>IF(C262*$F$1/Parameters!B263&lt;1,1,IF(C262*$F$1/Parameters!B263&gt;10000,10000,C262*$F$1/Parameters!B263))</f>
@@ -18827,7 +18827,7 @@
       </c>
       <c r="B264" s="1">
         <f t="shared" si="4"/>
-        <v>8771.0753477463295</v>
+        <v>5.6836129699628826</v>
       </c>
       <c r="C264" s="1">
         <f>IF(C263*$F$1/Parameters!B264&lt;1,1,IF(C263*$F$1/Parameters!B264&gt;10000,10000,C263*$F$1/Parameters!B264))</f>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="B265" s="1">
         <f t="shared" si="4"/>
-        <v>5013.8372294697638</v>
+        <v>3.24894145551026</v>
       </c>
       <c r="C265" s="1">
         <f>IF(C264*$F$1/Parameters!B265&lt;1,1,IF(C264*$F$1/Parameters!B265&gt;10000,10000,C264*$F$1/Parameters!B265))</f>
@@ -18953,7 +18953,7 @@
       </c>
       <c r="B273" s="1">
         <f t="shared" si="4"/>
-        <v>2713.0073307038756</v>
+        <v>1.7580151852594579</v>
       </c>
       <c r="C273" s="1">
         <f>IF(C272*$F$1/Parameters!B273&lt;1,1,IF(C272*$F$1/Parameters!B273&gt;10000,10000,C272*$F$1/Parameters!B273))</f>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="B274" s="1">
         <f t="shared" si="4"/>
-        <v>7506.2511980853942</v>
+        <v>4.8640132451033455</v>
       </c>
       <c r="C274" s="1">
         <f>IF(C273*$F$1/Parameters!B274&lt;1,1,IF(C273*$F$1/Parameters!B274&gt;10000,10000,C273*$F$1/Parameters!B274))</f>
@@ -18981,7 +18981,7 @@
       </c>
       <c r="B275" s="1">
         <f t="shared" si="4"/>
-        <v>9571.6873927591514</v>
+        <v>6.2024055720709672</v>
       </c>
       <c r="C275" s="1">
         <f>IF(C274*$F$1/Parameters!B275&lt;1,1,IF(C274*$F$1/Parameters!B275&gt;10000,10000,C274*$F$1/Parameters!B275))</f>
@@ -18995,7 +18995,7 @@
       </c>
       <c r="B276" s="1">
         <f t="shared" si="4"/>
-        <v>8340.5727457241192</v>
+        <v>5.4046494363655002</v>
       </c>
       <c r="C276" s="1">
         <f>IF(C275*$F$1/Parameters!B276&lt;1,1,IF(C275*$F$1/Parameters!B276&gt;10000,10000,C275*$F$1/Parameters!B276))</f>
@@ -19009,7 +19009,7 @@
       </c>
       <c r="B277" s="1">
         <f t="shared" si="4"/>
-        <v>4151.9097628741565</v>
+        <v>2.6904167667936392</v>
       </c>
       <c r="C277" s="1">
         <f>IF(C276*$F$1/Parameters!B277&lt;1,1,IF(C276*$F$1/Parameters!B277&gt;10000,10000,C276*$F$1/Parameters!B277))</f>
@@ -19121,7 +19121,7 @@
       </c>
       <c r="B285" s="1">
         <f t="shared" si="4"/>
-        <v>3651.4157656921302</v>
+        <v>2.3660991590896718</v>
       </c>
       <c r="C285" s="1">
         <f>IF(C284*$F$1/Parameters!B285&lt;1,1,IF(C284*$F$1/Parameters!B285&gt;10000,10000,C284*$F$1/Parameters!B285))</f>
@@ -19135,7 +19135,7 @@
       </c>
       <c r="B286" s="1">
         <f t="shared" si="4"/>
-        <v>8065.4385888115594</v>
+        <v>5.2263638783569473</v>
       </c>
       <c r="C286" s="1">
         <f>IF(C285*$F$1/Parameters!B286&lt;1,1,IF(C285*$F$1/Parameters!B286&gt;10000,10000,C285*$F$1/Parameters!B286))</f>
@@ -19149,7 +19149,7 @@
       </c>
       <c r="B287" s="1">
         <f t="shared" si="4"/>
-        <v>9597.6746381078592</v>
+        <v>6.2192451771207029</v>
       </c>
       <c r="C287" s="1">
         <f>IF(C286*$F$1/Parameters!B287&lt;1,1,IF(C286*$F$1/Parameters!B287&gt;10000,10000,C286*$F$1/Parameters!B287))</f>
@@ -19163,7 +19163,7 @@
       </c>
       <c r="B288" s="1">
         <f t="shared" si="4"/>
-        <v>7826.2039392038723</v>
+        <v>5.0713410215844137</v>
       </c>
       <c r="C288" s="1">
         <f>IF(C287*$F$1/Parameters!B288&lt;1,1,IF(C287*$F$1/Parameters!B288&gt;10000,10000,C287*$F$1/Parameters!B288))</f>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="B289" s="1">
         <f t="shared" si="4"/>
-        <v>3238.8226591684479</v>
+        <v>2.0987408890278583</v>
       </c>
       <c r="C289" s="1">
         <f>IF(C288*$F$1/Parameters!B289&lt;1,1,IF(C288*$F$1/Parameters!B289&gt;10000,10000,C288*$F$1/Parameters!B289))</f>
@@ -19289,7 +19289,7 @@
       </c>
       <c r="B297" s="1">
         <f t="shared" si="4"/>
-        <v>4542.5725983568282</v>
+        <v>2.943564330872233</v>
       </c>
       <c r="C297" s="1">
         <f>IF(C296*$F$1/Parameters!B297&lt;1,1,IF(C296*$F$1/Parameters!B297&gt;10000,10000,C296*$F$1/Parameters!B297))</f>
@@ -19303,7 +19303,7 @@
       </c>
       <c r="B298" s="1">
         <f t="shared" si="4"/>
-        <v>8542.908120199143</v>
+        <v>5.5357617473484444</v>
       </c>
       <c r="C298" s="1">
         <f>IF(C297*$F$1/Parameters!B298&lt;1,1,IF(C297*$F$1/Parameters!B298&gt;10000,10000,C297*$F$1/Parameters!B298))</f>
@@ -19317,7 +19317,7 @@
       </c>
       <c r="B299" s="1">
         <f t="shared" si="4"/>
-        <v>9529.9797811589015</v>
+        <v>6.175379248292062</v>
       </c>
       <c r="C299" s="1">
         <f>IF(C298*$F$1/Parameters!B299&lt;1,1,IF(C298*$F$1/Parameters!B299&gt;10000,10000,C298*$F$1/Parameters!B299))</f>
@@ -19331,7 +19331,7 @@
       </c>
       <c r="B300" s="1">
         <f t="shared" si="4"/>
-        <v>7231.9853024084832</v>
+        <v>4.6862903160341851</v>
       </c>
       <c r="C300" s="1">
         <f>IF(C299*$F$1/Parameters!B300&lt;1,1,IF(C299*$F$1/Parameters!B300&gt;10000,10000,C299*$F$1/Parameters!B300))</f>
@@ -19345,7 +19345,7 @@
       </c>
       <c r="B301" s="1">
         <f t="shared" si="4"/>
-        <v>2281.7056265699598</v>
+        <v>1.4785338374892012</v>
       </c>
       <c r="C301" s="1">
         <f>IF(C300*$F$1/Parameters!B301&lt;1,1,IF(C300*$F$1/Parameters!B301&gt;10000,10000,C300*$F$1/Parameters!B301))</f>
@@ -19457,7 +19457,7 @@
       </c>
       <c r="B309" s="1">
         <f t="shared" si="4"/>
-        <v>5379.5193598213646</v>
+        <v>3.4859016475674451</v>
       </c>
       <c r="C309" s="1">
         <f>IF(C308*$F$1/Parameters!B309&lt;1,1,IF(C308*$F$1/Parameters!B309&gt;10000,10000,C308*$F$1/Parameters!B309))</f>
@@ -19471,7 +19471,7 @@
       </c>
       <c r="B310" s="1">
         <f t="shared" si="4"/>
-        <v>8934.9315406633432</v>
+        <v>5.7897909636921439</v>
       </c>
       <c r="C310" s="1">
         <f>IF(C309*$F$1/Parameters!B310&lt;1,1,IF(C309*$F$1/Parameters!B310&gt;10000,10000,C309*$F$1/Parameters!B310))</f>
@@ -19485,7 +19485,7 @@
       </c>
       <c r="B311" s="1">
         <f t="shared" si="4"/>
-        <v>9369.1314073844624</v>
+        <v>6.0711503063280956</v>
       </c>
       <c r="C311" s="1">
         <f>IF(C310*$F$1/Parameters!B311&lt;1,1,IF(C310*$F$1/Parameters!B311&gt;10000,10000,C310*$F$1/Parameters!B311))</f>
@@ -19499,7 +19499,7 @@
       </c>
       <c r="B312" s="1">
         <f t="shared" si="4"/>
-        <v>6562.5567053793238</v>
+        <v>4.2525039323022753</v>
       </c>
       <c r="C312" s="1">
         <f>IF(C311*$F$1/Parameters!B312&lt;1,1,IF(C311*$F$1/Parameters!B312&gt;10000,10000,C311*$F$1/Parameters!B312))</f>
@@ -19513,7 +19513,7 @@
       </c>
       <c r="B313" s="1">
         <f t="shared" si="4"/>
-        <v>1288.0321746097729</v>
+        <v>1</v>
       </c>
       <c r="C313" s="1">
         <f>IF(C312*$F$1/Parameters!B313&lt;1,1,IF(C312*$F$1/Parameters!B313&gt;10000,10000,C312*$F$1/Parameters!B313))</f>
@@ -19611,7 +19611,7 @@
       </c>
       <c r="B320" s="1">
         <f t="shared" si="4"/>
-        <v>717.07135690472705</v>
+        <v>1</v>
       </c>
       <c r="C320" s="1">
         <f>IF(C319*$F$1/Parameters!B320&lt;1,1,IF(C319*$F$1/Parameters!B320&gt;10000,10000,C319*$F$1/Parameters!B320))</f>
@@ -19625,7 +19625,7 @@
       </c>
       <c r="B321" s="1">
         <f t="shared" si="4"/>
-        <v>6155.7208726875924</v>
+        <v>3.9888763468971966</v>
       </c>
       <c r="C321" s="1">
         <f>IF(C320*$F$1/Parameters!B321&lt;1,1,IF(C320*$F$1/Parameters!B321&gt;10000,10000,C320*$F$1/Parameters!B321))</f>
@@ -19639,7 +19639,7 @@
       </c>
       <c r="B322" s="1">
         <f t="shared" si="4"/>
-        <v>9238.4477921835987</v>
+        <v>5.9864679770960114</v>
       </c>
       <c r="C322" s="1">
         <f>IF(C321*$F$1/Parameters!B322&lt;1,1,IF(C321*$F$1/Parameters!B322&gt;10000,10000,C321*$F$1/Parameters!B322))</f>
@@ -19653,7 +19653,7 @@
       </c>
       <c r="B323" s="1">
         <f t="shared" ref="B323:B386" si="5">IF(A323*$H$1&lt;1,1,IF(A323*$H$1&gt;10000,10000,A323*$H$1))</f>
-        <v>9116.3854779821013</v>
+        <v>5.9073722078050119</v>
       </c>
       <c r="C323" s="1">
         <f>IF(C322*$F$1/Parameters!B323&lt;1,1,IF(C322*$F$1/Parameters!B323&gt;10000,10000,C322*$F$1/Parameters!B323))</f>
@@ -19667,7 +19667,7 @@
       </c>
       <c r="B324" s="1">
         <f t="shared" si="5"/>
-        <v>5823.1452842239723</v>
+        <v>3.7733690284507126</v>
       </c>
       <c r="C324" s="1">
         <f>IF(C323*$F$1/Parameters!B324&lt;1,1,IF(C323*$F$1/Parameters!B324&gt;10000,10000,C323*$F$1/Parameters!B324))</f>
@@ -19681,7 +19681,7 @@
       </c>
       <c r="B325" s="1">
         <f t="shared" si="5"/>
-        <v>265.56125831750023</v>
+        <v>1</v>
       </c>
       <c r="C325" s="1">
         <f>IF(C324*$F$1/Parameters!B325&lt;1,1,IF(C324*$F$1/Parameters!B325&gt;10000,10000,C324*$F$1/Parameters!B325))</f>
@@ -19779,7 +19779,7 @@
       </c>
       <c r="B332" s="1">
         <f t="shared" si="5"/>
-        <v>1727.8823322722465</v>
+        <v>1.1196591119007544</v>
       </c>
       <c r="C332" s="1">
         <f>IF(C331*$F$1/Parameters!B332&lt;1,1,IF(C331*$F$1/Parameters!B332&gt;10000,10000,C331*$F$1/Parameters!B332))</f>
@@ -19793,7 +19793,7 @@
       </c>
       <c r="B333" s="1">
         <f t="shared" si="5"/>
-        <v>6865.1162800207076</v>
+        <v>4.4485610238720188</v>
       </c>
       <c r="C333" s="1">
         <f>IF(C332*$F$1/Parameters!B333&lt;1,1,IF(C332*$F$1/Parameters!B333&gt;10000,10000,C332*$F$1/Parameters!B333))</f>
@@ -19807,7 +19807,7 @@
       </c>
       <c r="B334" s="1">
         <f t="shared" si="5"/>
-        <v>9451.0869121311898</v>
+        <v>6.1242570636264508</v>
       </c>
       <c r="C334" s="1">
         <f>IF(C333*$F$1/Parameters!B334&lt;1,1,IF(C333*$F$1/Parameters!B334&gt;10000,10000,C333*$F$1/Parameters!B334))</f>
@@ -19821,7 +19821,7 @@
       </c>
       <c r="B335" s="1">
         <f t="shared" si="5"/>
-        <v>8773.7155228838892</v>
+        <v>5.6853237902511458</v>
       </c>
       <c r="C335" s="1">
         <f>IF(C334*$F$1/Parameters!B335&lt;1,1,IF(C334*$F$1/Parameters!B335&gt;10000,10000,C334*$F$1/Parameters!B335))</f>
@@ -19835,7 +19835,7 @@
       </c>
       <c r="B336" s="1">
         <f t="shared" si="5"/>
-        <v>5019.5246257820563</v>
+        <v>3.2526268598836436</v>
       </c>
       <c r="C336" s="1">
         <f>IF(C335*$F$1/Parameters!B336&lt;1,1,IF(C335*$F$1/Parameters!B336&gt;10000,10000,C335*$F$1/Parameters!B336))</f>
@@ -19947,7 +19947,7 @@
       </c>
       <c r="B344" s="1">
         <f t="shared" si="5"/>
-        <v>2706.4613371463865</v>
+        <v>1.7537734141641728</v>
       </c>
       <c r="C344" s="1">
         <f>IF(C343*$F$1/Parameters!B344&lt;1,1,IF(C343*$F$1/Parameters!B344&gt;10000,10000,C343*$F$1/Parameters!B344))</f>
@@ -19961,7 +19961,7 @@
       </c>
       <c r="B345" s="1">
         <f t="shared" si="5"/>
-        <v>7502.1663706715608</v>
+        <v>4.8613662973633183</v>
       </c>
       <c r="C345" s="1">
         <f>IF(C344*$F$1/Parameters!B345&lt;1,1,IF(C344*$F$1/Parameters!B345&gt;10000,10000,C344*$F$1/Parameters!B345))</f>
@@ -19975,7 +19975,7 @@
       </c>
       <c r="B346" s="1">
         <f t="shared" si="5"/>
-        <v>9571.1885387786715</v>
+        <v>6.2020823171858854</v>
       </c>
       <c r="C346" s="1">
         <f>IF(C345*$F$1/Parameters!B346&lt;1,1,IF(C345*$F$1/Parameters!B346&gt;10000,10000,C345*$F$1/Parameters!B346))</f>
@@ -19989,7 +19989,7 @@
       </c>
       <c r="B347" s="1">
         <f t="shared" si="5"/>
-        <v>8343.7972307341806</v>
+        <v>5.4067388865295953</v>
       </c>
       <c r="C347" s="1">
         <f>IF(C346*$F$1/Parameters!B347&lt;1,1,IF(C346*$F$1/Parameters!B347&gt;10000,10000,C346*$F$1/Parameters!B347))</f>
@@ -20003,7 +20003,7 @@
       </c>
       <c r="B348" s="1">
         <f t="shared" si="5"/>
-        <v>4157.9696854098074</v>
+        <v>2.6943435662971287</v>
       </c>
       <c r="C348" s="1">
         <f>IF(C347*$F$1/Parameters!B348&lt;1,1,IF(C347*$F$1/Parameters!B348&gt;10000,10000,C347*$F$1/Parameters!B348))</f>
@@ -20115,7 +20115,7 @@
       </c>
       <c r="B356" s="1">
         <f t="shared" si="5"/>
-        <v>3645.1672792983436</v>
+        <v>2.3620501711489301</v>
       </c>
       <c r="C356" s="1">
         <f>IF(C355*$F$1/Parameters!B356&lt;1,1,IF(C355*$F$1/Parameters!B356&gt;10000,10000,C355*$F$1/Parameters!B356))</f>
@@ -20129,7 +20129,7 @@
       </c>
       <c r="B357" s="1">
         <f t="shared" si="5"/>
-        <v>8061.8968314035246</v>
+        <v>5.2240688372653272</v>
       </c>
       <c r="C357" s="1">
         <f>IF(C356*$F$1/Parameters!B357&lt;1,1,IF(C356*$F$1/Parameters!B357&gt;10000,10000,C356*$F$1/Parameters!B357))</f>
@@ -20143,7 +20143,7 @@
       </c>
       <c r="B358" s="1">
         <f t="shared" si="5"/>
-        <v>9597.8148759936194</v>
+        <v>6.2193360505694857</v>
       </c>
       <c r="C358" s="1">
         <f>IF(C357*$F$1/Parameters!B358&lt;1,1,IF(C357*$F$1/Parameters!B358&gt;10000,10000,C357*$F$1/Parameters!B358))</f>
@@ -20157,7 +20157,7 @@
       </c>
       <c r="B359" s="1">
         <f t="shared" si="5"/>
-        <v>7829.9875561629087</v>
+        <v>5.0737927864557841</v>
       </c>
       <c r="C359" s="1">
         <f>IF(C358*$F$1/Parameters!B359&lt;1,1,IF(C358*$F$1/Parameters!B359&gt;10000,10000,C358*$F$1/Parameters!B359))</f>
@@ -20171,7 +20171,7 @@
       </c>
       <c r="B360" s="1">
         <f t="shared" si="5"/>
-        <v>3245.2077899012584</v>
+        <v>2.1028784218170662</v>
       </c>
       <c r="C360" s="1">
         <f>IF(C359*$F$1/Parameters!B360&lt;1,1,IF(C359*$F$1/Parameters!B360&gt;10000,10000,C359*$F$1/Parameters!B360))</f>
@@ -20283,7 +20283,7 @@
       </c>
       <c r="B368" s="1">
         <f t="shared" si="5"/>
-        <v>4536.6704095264868</v>
+        <v>2.9397397420211155</v>
       </c>
       <c r="C368" s="1">
         <f>IF(C367*$F$1/Parameters!B368&lt;1,1,IF(C367*$F$1/Parameters!B368&gt;10000,10000,C367*$F$1/Parameters!B368))</f>
@@ -20297,7 +20297,7 @@
       </c>
       <c r="B369" s="1">
         <f t="shared" si="5"/>
-        <v>8539.9370880959395</v>
+        <v>5.533836533400728</v>
       </c>
       <c r="C369" s="1">
         <f>IF(C368*$F$1/Parameters!B369&lt;1,1,IF(C368*$F$1/Parameters!B369&gt;10000,10000,C368*$F$1/Parameters!B369))</f>
@@ -20311,7 +20311,7 @@
       </c>
       <c r="B370" s="1">
         <f t="shared" si="5"/>
-        <v>9530.75801588371</v>
+        <v>6.1758835405025652</v>
       </c>
       <c r="C370" s="1">
         <f>IF(C369*$F$1/Parameters!B370&lt;1,1,IF(C369*$F$1/Parameters!B370&gt;10000,10000,C369*$F$1/Parameters!B370))</f>
@@ -20325,7 +20325,7 @@
       </c>
       <c r="B371" s="1">
         <f t="shared" si="5"/>
-        <v>7236.2985074922353</v>
+        <v>4.6890852513624308</v>
       </c>
       <c r="C371" s="1">
         <f>IF(C370*$F$1/Parameters!B371&lt;1,1,IF(C370*$F$1/Parameters!B371&gt;10000,10000,C370*$F$1/Parameters!B371))</f>
@@ -20339,7 +20339,7 @@
       </c>
       <c r="B372" s="1">
         <f t="shared" si="5"/>
-        <v>2288.3661081326836</v>
+        <v>1.4828497962394385</v>
       </c>
       <c r="C372" s="1">
         <f>IF(C371*$F$1/Parameters!B372&lt;1,1,IF(C371*$F$1/Parameters!B372&gt;10000,10000,C371*$F$1/Parameters!B372))</f>
@@ -20451,7 +20451,7 @@
       </c>
       <c r="B380" s="1">
         <f t="shared" si="5"/>
-        <v>5374.0095549399066</v>
+        <v>3.4823313215532852</v>
       </c>
       <c r="C380" s="1">
         <f>IF(C379*$F$1/Parameters!B380&lt;1,1,IF(C379*$F$1/Parameters!B380&gt;10000,10000,C379*$F$1/Parameters!B380))</f>
@@ -20465,7 +20465,7 @@
       </c>
       <c r="B381" s="1">
         <f t="shared" si="5"/>
-        <v>8932.554432738234</v>
+        <v>5.7882506096422119</v>
       </c>
       <c r="C381" s="1">
         <f>IF(C380*$F$1/Parameters!B381&lt;1,1,IF(C380*$F$1/Parameters!B381&gt;10000,10000,C380*$F$1/Parameters!B381))</f>
@@ -20479,7 +20479,7 @@
       </c>
       <c r="B382" s="1">
         <f t="shared" si="5"/>
-        <v>9370.5415622153487</v>
+        <v>6.0720640796077348</v>
       </c>
       <c r="C382" s="1">
         <f>IF(C381*$F$1/Parameters!B382&lt;1,1,IF(C381*$F$1/Parameters!B382&gt;10000,10000,C381*$F$1/Parameters!B382))</f>
@@ -20493,7 +20493,7 @@
       </c>
       <c r="B383" s="1">
         <f t="shared" si="5"/>
-        <v>6567.3658195514708</v>
+        <v>4.2556202142402562</v>
       </c>
       <c r="C383" s="1">
         <f>IF(C382*$F$1/Parameters!B383&lt;1,1,IF(C382*$F$1/Parameters!B383&gt;10000,10000,C382*$F$1/Parameters!B383))</f>
@@ -20507,7 +20507,7 @@
       </c>
       <c r="B384" s="1">
         <f t="shared" si="5"/>
-        <v>1294.9159995981463</v>
+        <v>1</v>
       </c>
       <c r="C384" s="1">
         <f>IF(C383*$F$1/Parameters!B384&lt;1,1,IF(C383*$F$1/Parameters!B384&gt;10000,10000,C383*$F$1/Parameters!B384))</f>
@@ -20605,7 +20605,7 @@
       </c>
       <c r="B391" s="1">
         <f t="shared" si="6"/>
-        <v>710.08448030264253</v>
+        <v>1</v>
       </c>
       <c r="C391" s="1">
         <f>IF(C390*$F$1/Parameters!B391&lt;1,1,IF(C390*$F$1/Parameters!B391&gt;10000,10000,C390*$F$1/Parameters!B391))</f>
@@ -20619,7 +20619,7 @@
       </c>
       <c r="B392" s="1">
         <f t="shared" si="6"/>
-        <v>6150.6464742673088</v>
+        <v>3.9855881620928448</v>
       </c>
       <c r="C392" s="1">
         <f>IF(C391*$F$1/Parameters!B392&lt;1,1,IF(C391*$F$1/Parameters!B392&gt;10000,10000,C391*$F$1/Parameters!B392))</f>
@@ -20633,7 +20633,7 @@
       </c>
       <c r="B393" s="1">
         <f t="shared" si="6"/>
-        <v>9236.683169739048</v>
+        <v>5.9853245105750554</v>
       </c>
       <c r="C393" s="1">
         <f>IF(C392*$F$1/Parameters!B393&lt;1,1,IF(C392*$F$1/Parameters!B393&gt;10000,10000,C392*$F$1/Parameters!B393))</f>
@@ -20647,7 +20647,7 @@
       </c>
       <c r="B394" s="1">
         <f t="shared" si="6"/>
-        <v>9118.4165419295896</v>
+        <v>5.9086883270876642</v>
       </c>
       <c r="C394" s="1">
         <f>IF(C393*$F$1/Parameters!B394&lt;1,1,IF(C393*$F$1/Parameters!B394&gt;10000,10000,C393*$F$1/Parameters!B394))</f>
@@ -20661,7 +20661,7 @@
       </c>
       <c r="B395" s="1">
         <f t="shared" si="6"/>
-        <v>5828.4127562140038</v>
+        <v>3.7767823239628937</v>
       </c>
       <c r="C395" s="1">
         <f>IF(C394*$F$1/Parameters!B395&lt;1,1,IF(C394*$F$1/Parameters!B395&gt;10000,10000,C394*$F$1/Parameters!B395))</f>
@@ -20675,7 +20675,7 @@
       </c>
       <c r="B396" s="1">
         <f t="shared" si="6"/>
-        <v>272.61467538251827</v>
+        <v>1</v>
       </c>
       <c r="C396" s="1">
         <f>IF(C395*$F$1/Parameters!B396&lt;1,1,IF(C395*$F$1/Parameters!B396&gt;10000,10000,C395*$F$1/Parameters!B396))</f>
@@ -20773,7 +20773,7 @@
       </c>
       <c r="B403" s="1">
         <f t="shared" si="6"/>
-        <v>1721.0884446193618</v>
+        <v>1.1152567066711234</v>
       </c>
       <c r="C403" s="1">
         <f>IF(C402*$F$1/Parameters!B403&lt;1,1,IF(C402*$F$1/Parameters!B403&gt;10000,10000,C402*$F$1/Parameters!B403))</f>
@@ -20787,7 +20787,7 @@
       </c>
       <c r="B404" s="1">
         <f t="shared" si="6"/>
-        <v>6860.5169107656857</v>
+        <v>4.4455806555916109</v>
       </c>
       <c r="C404" s="1">
         <f>IF(C403*$F$1/Parameters!B404&lt;1,1,IF(C403*$F$1/Parameters!B404&gt;10000,10000,C403*$F$1/Parameters!B404))</f>
@@ -20801,7 +20801,7 @@
       </c>
       <c r="B405" s="1">
         <f t="shared" si="6"/>
-        <v>9449.9485539656198</v>
+        <v>6.123519413226953</v>
       </c>
       <c r="C405" s="1">
         <f>IF(C404*$F$1/Parameters!B405&lt;1,1,IF(C404*$F$1/Parameters!B405&gt;10000,10000,C404*$F$1/Parameters!B405))</f>
@@ -20815,7 +20815,7 @@
       </c>
       <c r="B406" s="1">
         <f t="shared" si="6"/>
-        <v>8776.3516366797267</v>
+        <v>5.6870319788102792</v>
       </c>
       <c r="C406" s="1">
         <f>IF(C405*$F$1/Parameters!B406&lt;1,1,IF(C405*$F$1/Parameters!B406&gt;10000,10000,C405*$F$1/Parameters!B406))</f>
@@ -20829,7 +20829,7 @@
       </c>
       <c r="B407" s="1">
         <f t="shared" si="6"/>
-        <v>5025.2093252989234</v>
+        <v>3.2563105167470758</v>
       </c>
       <c r="C407" s="1">
         <f>IF(C406*$F$1/Parameters!B407&lt;1,1,IF(C406*$F$1/Parameters!B407&gt;10000,10000,C406*$F$1/Parameters!B407))</f>
@@ -20941,7 +20941,7 @@
       </c>
       <c r="B415" s="1">
         <f t="shared" si="6"/>
-        <v>2699.9134875290706</v>
+        <v>1.7495304403514003</v>
       </c>
       <c r="C415" s="1">
         <f>IF(C414*$F$1/Parameters!B415&lt;1,1,IF(C414*$F$1/Parameters!B415&gt;10000,10000,C414*$F$1/Parameters!B415))</f>
@@ -20955,7 +20955,7 @@
       </c>
       <c r="B416" s="1">
         <f t="shared" si="6"/>
-        <v>7498.077944089544</v>
+        <v>4.8587170173803038</v>
       </c>
       <c r="C416" s="1">
         <f>IF(C415*$F$1/Parameters!B416&lt;1,1,IF(C415*$F$1/Parameters!B416&gt;10000,10000,C415*$F$1/Parameters!B416))</f>
@@ -20969,7 +20969,7 @@
       </c>
       <c r="B417" s="1">
         <f t="shared" si="6"/>
-        <v>9570.6853335967153</v>
+        <v>6.2017562427440041</v>
       </c>
       <c r="C417" s="1">
         <f>IF(C416*$F$1/Parameters!B417&lt;1,1,IF(C416*$F$1/Parameters!B417&gt;10000,10000,C416*$F$1/Parameters!B417))</f>
@@ -20983,7 +20983,7 @@
       </c>
       <c r="B418" s="1">
         <f t="shared" si="6"/>
-        <v>8347.0178106661278</v>
+        <v>5.4088258062225973</v>
       </c>
       <c r="C418" s="1">
         <f>IF(C417*$F$1/Parameters!B418&lt;1,1,IF(C417*$F$1/Parameters!B418&gt;10000,10000,C417*$F$1/Parameters!B418))</f>
@@ -20997,7 +20997,7 @@
       </c>
       <c r="B419" s="1">
         <f t="shared" si="6"/>
-        <v>4164.0272243018262</v>
+        <v>2.6982688212114616</v>
       </c>
       <c r="C419" s="1">
         <f>IF(C418*$F$1/Parameters!B419&lt;1,1,IF(C418*$F$1/Parameters!B419&gt;10000,10000,C418*$F$1/Parameters!B419))</f>
@@ -21109,7 +21109,7 @@
       </c>
       <c r="B427" s="1">
         <f t="shared" si="6"/>
-        <v>3638.9165956506495</v>
+        <v>2.3579997593986426</v>
       </c>
       <c r="C427" s="1">
         <f>IF(C426*$F$1/Parameters!B427&lt;1,1,IF(C426*$F$1/Parameters!B427&gt;10000,10000,C426*$F$1/Parameters!B427))</f>
@@ -21123,7 +21123,7 @@
       </c>
       <c r="B428" s="1">
         <f t="shared" si="6"/>
-        <v>8058.3512713805048</v>
+        <v>5.2217713320982098</v>
       </c>
       <c r="C428" s="1">
         <f>IF(C427*$F$1/Parameters!B428&lt;1,1,IF(C427*$F$1/Parameters!B428&gt;10000,10000,C427*$F$1/Parameters!B428))</f>
@@ -21137,7 +21137,7 @@
       </c>
       <c r="B429" s="1">
         <f t="shared" si="6"/>
-        <v>9597.9507529999537</v>
+        <v>6.2194240981902063</v>
       </c>
       <c r="C429" s="1">
         <f>IF(C428*$F$1/Parameters!B429&lt;1,1,IF(C428*$F$1/Parameters!B429&gt;10000,10000,C428*$F$1/Parameters!B429))</f>
@@ -21151,7 +21151,7 @@
       </c>
       <c r="B430" s="1">
         <f t="shared" si="6"/>
-        <v>7833.7674547996739</v>
+        <v>5.0762421418729149</v>
       </c>
       <c r="C430" s="1">
         <f>IF(C429*$F$1/Parameters!B430&lt;1,1,IF(C429*$F$1/Parameters!B430&gt;10000,10000,C429*$F$1/Parameters!B430))</f>
@@ -21165,7 +21165,7 @@
       </c>
       <c r="B431" s="1">
         <f t="shared" si="6"/>
-        <v>3251.5908687545571</v>
+        <v>2.1070146249986093</v>
       </c>
       <c r="C431" s="1">
         <f>IF(C430*$F$1/Parameters!B431&lt;1,1,IF(C430*$F$1/Parameters!B431&gt;10000,10000,C430*$F$1/Parameters!B431))</f>
@@ -21277,7 +21277,7 @@
       </c>
       <c r="B439" s="1">
         <f t="shared" si="6"/>
-        <v>4530.7656994050922</v>
+        <v>2.9359135193860029</v>
       </c>
       <c r="C439" s="1">
         <f>IF(C438*$F$1/Parameters!B439&lt;1,1,IF(C438*$F$1/Parameters!B439&gt;10000,10000,C438*$F$1/Parameters!B439))</f>
@@ -21291,7 +21291,7 @@
       </c>
       <c r="B440" s="1">
         <f t="shared" si="6"/>
-        <v>8536.9620796231138</v>
+        <v>5.5319087427853795</v>
       </c>
       <c r="C440" s="1">
         <f>IF(C439*$F$1/Parameters!B440&lt;1,1,IF(C439*$F$1/Parameters!B440&gt;10000,10000,C439*$F$1/Parameters!B440))</f>
@@ -21305,7 +21305,7 @@
       </c>
       <c r="B441" s="1">
         <f t="shared" si="6"/>
-        <v>9531.5319141024393</v>
+        <v>6.1763850226788106</v>
       </c>
       <c r="C441" s="1">
         <f>IF(C440*$F$1/Parameters!B441&lt;1,1,IF(C440*$F$1/Parameters!B441&gt;10000,10000,C440*$F$1/Parameters!B441))</f>
@@ -21319,7 +21319,7 @@
       </c>
       <c r="B442" s="1">
         <f t="shared" si="6"/>
-        <v>7240.6082100435397</v>
+        <v>4.6918779170671643</v>
       </c>
       <c r="C442" s="1">
         <f>IF(C441*$F$1/Parameters!B442&lt;1,1,IF(C441*$F$1/Parameters!B442&gt;10000,10000,C441*$F$1/Parameters!B442))</f>
@@ -21333,7 +21333,7 @@
       </c>
       <c r="B443" s="1">
         <f t="shared" si="6"/>
-        <v>2295.0248856018261</v>
+        <v>1.4871646507455554</v>
       </c>
       <c r="C443" s="1">
         <f>IF(C442*$F$1/Parameters!B443&lt;1,1,IF(C442*$F$1/Parameters!B443&gt;10000,10000,C442*$F$1/Parameters!B443))</f>
@@ -21445,7 +21445,7 @@
       </c>
       <c r="B451" s="1">
         <f t="shared" ref="B451:B514" si="7">IF(A451*$H$1&lt;1,1,IF(A451*$H$1&gt;10000,10000,A451*$H$1))</f>
-        <v>5368.4969244173908</v>
+        <v>3.4787591645378471</v>
       </c>
       <c r="C451" s="1">
         <f>IF(C450*$F$1/Parameters!B451&lt;1,1,IF(C450*$F$1/Parameters!B451&gt;10000,10000,C450*$F$1/Parameters!B451))</f>
@@ -21459,7 +21459,7 @@
       </c>
       <c r="B452" s="1">
         <f t="shared" si="7"/>
-        <v>8930.1732057377776</v>
+        <v>5.7867075864520512</v>
       </c>
       <c r="C452" s="1">
         <f>IF(C451*$F$1/Parameters!B452&lt;1,1,IF(C451*$F$1/Parameters!B452&gt;10000,10000,C451*$F$1/Parameters!B452))</f>
@@ -21473,7 +21473,7 @@
       </c>
       <c r="B453" s="1">
         <f t="shared" si="7"/>
-        <v>9371.9474387744758</v>
+        <v>6.0729750805886669</v>
       </c>
       <c r="C453" s="1">
         <f>IF(C452*$F$1/Parameters!B453&lt;1,1,IF(C452*$F$1/Parameters!B453&gt;10000,10000,C452*$F$1/Parameters!B453))</f>
@@ -21487,7 +21487,7 @@
       </c>
       <c r="B454" s="1">
         <f t="shared" si="7"/>
-        <v>6572.1716743300121</v>
+        <v>4.2587343841074761</v>
       </c>
       <c r="C454" s="1">
         <f>IF(C453*$F$1/Parameters!B454&lt;1,1,IF(C453*$F$1/Parameters!B454&gt;10000,10000,C453*$F$1/Parameters!B454))</f>
@@ -21501,7 +21501,7 @@
       </c>
       <c r="B455" s="1">
         <f t="shared" si="7"/>
-        <v>1301.7984815850391</v>
+        <v>1</v>
       </c>
       <c r="C455" s="1">
         <f>IF(C454*$F$1/Parameters!B455&lt;1,1,IF(C454*$F$1/Parameters!B455&gt;10000,10000,C454*$F$1/Parameters!B455))</f>
@@ -21599,7 +21599,7 @@
       </c>
       <c r="B462" s="1">
         <f t="shared" si="7"/>
-        <v>703.09647326942832</v>
+        <v>1</v>
       </c>
       <c r="C462" s="1">
         <f>IF(C461*$F$1/Parameters!B462&lt;1,1,IF(C461*$F$1/Parameters!B462&gt;10000,10000,C461*$F$1/Parameters!B462))</f>
@@ -21613,7 +21613,7 @@
       </c>
       <c r="B463" s="1">
         <f t="shared" si="7"/>
-        <v>6145.5689679195675</v>
+        <v>3.9822979633670403</v>
       </c>
       <c r="C463" s="1">
         <f>IF(C462*$F$1/Parameters!B463&lt;1,1,IF(C462*$F$1/Parameters!B463&gt;10000,10000,C462*$F$1/Parameters!B463))</f>
@@ -21627,7 +21627,7 @@
       </c>
       <c r="B464" s="1">
         <f t="shared" si="7"/>
-        <v>9234.9143176766265</v>
+        <v>5.9841783032828664</v>
       </c>
       <c r="C464" s="1">
         <f>IF(C463*$F$1/Parameters!B464&lt;1,1,IF(C463*$F$1/Parameters!B464&gt;10000,10000,C463*$F$1/Parameters!B464))</f>
@@ -21641,7 +21641,7 @@
       </c>
       <c r="B465" s="1">
         <f t="shared" si="7"/>
-        <v>9120.4434192459084</v>
+        <v>5.9100017334542523</v>
       </c>
       <c r="C465" s="1">
         <f>IF(C464*$F$1/Parameters!B465&lt;1,1,IF(C464*$F$1/Parameters!B465&gt;10000,10000,C464*$F$1/Parameters!B465))</f>
@@ -21655,7 +21655,7 @@
       </c>
       <c r="B466" s="1">
         <f t="shared" si="7"/>
-        <v>5833.6772373997737</v>
+        <v>3.7801936814488664</v>
       </c>
       <c r="C466" s="1">
         <f>IF(C465*$F$1/Parameters!B466&lt;1,1,IF(C465*$F$1/Parameters!B466&gt;10000,10000,C465*$F$1/Parameters!B466))</f>
@@ -21669,7 +21669,7 @@
       </c>
       <c r="B467" s="1">
         <f t="shared" si="7"/>
-        <v>279.66712102478368</v>
+        <v>1</v>
       </c>
       <c r="C467" s="1">
         <f>IF(C466*$F$1/Parameters!B467&lt;1,1,IF(C466*$F$1/Parameters!B467&gt;10000,10000,C466*$F$1/Parameters!B467))</f>
@@ -21767,7 +21767,7 @@
       </c>
       <c r="B474" s="1">
         <f t="shared" si="7"/>
-        <v>1714.2930590629021</v>
+        <v>1.1108533308074653</v>
       </c>
       <c r="C474" s="1">
         <f>IF(C473*$F$1/Parameters!B474&lt;1,1,IF(C473*$F$1/Parameters!B474&gt;10000,10000,C473*$F$1/Parameters!B474))</f>
@@ -21781,7 +21781,7 @@
       </c>
       <c r="B475" s="1">
         <f t="shared" si="7"/>
-        <v>6855.9141755646033</v>
+        <v>4.4425981061949855</v>
       </c>
       <c r="C475" s="1">
         <f>IF(C474*$F$1/Parameters!B475&lt;1,1,IF(C474*$F$1/Parameters!B475&gt;10000,10000,C474*$F$1/Parameters!B475))</f>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="B476" s="1">
         <f t="shared" si="7"/>
-        <v>9448.8058886660128</v>
+        <v>6.1227789718261336</v>
       </c>
       <c r="C476" s="1">
         <f>IF(C475*$F$1/Parameters!B476&lt;1,1,IF(C475*$F$1/Parameters!B476&gt;10000,10000,C475*$F$1/Parameters!B476))</f>
@@ -21809,7 +21809,7 @@
       </c>
       <c r="B477" s="1">
         <f t="shared" si="7"/>
-        <v>8778.9836881756855</v>
+        <v>5.6887375350194045</v>
       </c>
       <c r="C477" s="1">
         <f>IF(C476*$F$1/Parameters!B477&lt;1,1,IF(C476*$F$1/Parameters!B477&gt;10000,10000,C476*$F$1/Parameters!B477))</f>
@@ -21823,7 +21823,7 @@
       </c>
       <c r="B478" s="1">
         <f t="shared" si="7"/>
-        <v>5030.8913259541278</v>
+        <v>3.2599924247616454</v>
       </c>
       <c r="C478" s="1">
         <f>IF(C477*$F$1/Parameters!B478&lt;1,1,IF(C477*$F$1/Parameters!B478&gt;10000,10000,C477*$F$1/Parameters!B478))</f>
@@ -21935,7 +21935,7 @@
       </c>
       <c r="B486" s="1">
         <f t="shared" si="7"/>
-        <v>2693.3637842318958</v>
+        <v>1.7452862653633474</v>
       </c>
       <c r="C486" s="1">
         <f>IF(C485*$F$1/Parameters!B486&lt;1,1,IF(C485*$F$1/Parameters!B486&gt;10000,10000,C485*$F$1/Parameters!B486))</f>
@@ -21949,7 +21949,7 @@
       </c>
       <c r="B487" s="1">
         <f t="shared" si="7"/>
-        <v>7493.9859198253744</v>
+        <v>4.8560654061172439</v>
       </c>
       <c r="C487" s="1">
         <f>IF(C486*$F$1/Parameters!B487&lt;1,1,IF(C486*$F$1/Parameters!B487&gt;10000,10000,C486*$F$1/Parameters!B487))</f>
@@ -21963,7 +21963,7 @@
       </c>
       <c r="B488" s="1">
         <f t="shared" si="7"/>
-        <v>9570.1777773961821</v>
+        <v>6.201427348863839</v>
       </c>
       <c r="C488" s="1">
         <f>IF(C487*$F$1/Parameters!B488&lt;1,1,IF(C487*$F$1/Parameters!B488&gt;10000,10000,C487*$F$1/Parameters!B488))</f>
@@ -21977,7 +21977,7 @@
       </c>
       <c r="B489" s="1">
         <f t="shared" si="7"/>
-        <v>8350.2344843493684</v>
+        <v>5.410910194685969</v>
       </c>
       <c r="C489" s="1">
         <f>IF(C488*$F$1/Parameters!B489&lt;1,1,IF(C488*$F$1/Parameters!B489&gt;10000,10000,C488*$F$1/Parameters!B489))</f>
@@ -21991,7 +21991,7 @@
       </c>
       <c r="B490" s="1">
         <f t="shared" si="7"/>
-        <v>4170.0823773484553</v>
+        <v>2.7021925301099126</v>
       </c>
       <c r="C490" s="1">
         <f>IF(C489*$F$1/Parameters!B490&lt;1,1,IF(C489*$F$1/Parameters!B490&gt;10000,10000,C489*$F$1/Parameters!B490))</f>
@@ -22103,7 +22103,7 @@
       </c>
       <c r="B498" s="1">
         <f t="shared" si="7"/>
-        <v>3632.6637170210033</v>
+        <v>2.3539479253110249</v>
       </c>
       <c r="C498" s="1">
         <f>IF(C497*$F$1/Parameters!B498&lt;1,1,IF(C497*$F$1/Parameters!B498&gt;10000,10000,C497*$F$1/Parameters!B498))</f>
@@ -22117,7 +22117,7 @@
       </c>
       <c r="B499" s="1">
         <f t="shared" si="7"/>
-        <v>8054.8019100312113</v>
+        <v>5.2194713636906753</v>
       </c>
       <c r="C499" s="1">
         <f>IF(C498*$F$1/Parameters!B499&lt;1,1,IF(C498*$F$1/Parameters!B499&gt;10000,10000,C498*$F$1/Parameters!B499))</f>
@@ -22131,7 +22131,7 @@
       </c>
       <c r="B500" s="1">
         <f t="shared" si="7"/>
-        <v>9598.0822690774748</v>
+        <v>6.2195093199508582</v>
       </c>
       <c r="C500" s="1">
         <f>IF(C499*$F$1/Parameters!B500&lt;1,1,IF(C499*$F$1/Parameters!B500&gt;10000,10000,C499*$F$1/Parameters!B500))</f>
@@ -22145,7 +22145,7 @@
       </c>
       <c r="B501" s="1">
         <f t="shared" si="7"/>
-        <v>7837.5436337402771</v>
+        <v>5.0786890869455306</v>
       </c>
       <c r="C501" s="1">
         <f>IF(C500*$F$1/Parameters!B501&lt;1,1,IF(C500*$F$1/Parameters!B501&gt;10000,10000,C500*$F$1/Parameters!B501))</f>
@@ -22159,7 +22159,7 @@
       </c>
       <c r="B502" s="1">
         <f t="shared" si="7"/>
-        <v>3257.9718934082716</v>
+        <v>2.1111494970690932</v>
       </c>
       <c r="C502" s="1">
         <f>IF(C501*$F$1/Parameters!B502&lt;1,1,IF(C501*$F$1/Parameters!B502&gt;10000,10000,C501*$F$1/Parameters!B502))</f>
@@ -22271,7 +22271,7 @@
       </c>
       <c r="B510" s="1">
         <f t="shared" si="7"/>
-        <v>4524.85847013885</v>
+        <v>2.9320856643576239</v>
       </c>
       <c r="C510" s="1">
         <f>IF(C509*$F$1/Parameters!B510&lt;1,1,IF(C509*$F$1/Parameters!B510&gt;10000,10000,C509*$F$1/Parameters!B510))</f>
@@ -22285,7 +22285,7 @@
       </c>
       <c r="B511" s="1">
         <f t="shared" si="7"/>
-        <v>8533.9830958620059</v>
+        <v>5.5299783762031005</v>
       </c>
       <c r="C511" s="1">
         <f>IF(C510*$F$1/Parameters!B511&lt;1,1,IF(C510*$F$1/Parameters!B511&gt;10000,10000,C510*$F$1/Parameters!B511))</f>
@@ -22299,7 +22299,7 @@
       </c>
       <c r="B512" s="1">
         <f t="shared" si="7"/>
-        <v>9532.3014755337972</v>
+        <v>6.1768836946385237</v>
       </c>
       <c r="C512" s="1">
         <f>IF(C511*$F$1/Parameters!B512&lt;1,1,IF(C511*$F$1/Parameters!B512&gt;10000,10000,C511*$F$1/Parameters!B512))</f>
@@ -22313,7 +22313,7 @@
       </c>
       <c r="B513" s="1">
         <f t="shared" si="7"/>
-        <v>7244.914408495938</v>
+        <v>4.6946683121333255</v>
       </c>
       <c r="C513" s="1">
         <f>IF(C512*$F$1/Parameters!B513&lt;1,1,IF(C512*$F$1/Parameters!B513&gt;10000,10000,C512*$F$1/Parameters!B513))</f>
@@ -22327,7 +22327,7 @@
       </c>
       <c r="B514" s="1">
         <f t="shared" si="7"/>
-        <v>2301.6819565571045</v>
+        <v>1.4914783994392209</v>
       </c>
       <c r="C514" s="1">
         <f>IF(C513*$F$1/Parameters!B514&lt;1,1,IF(C513*$F$1/Parameters!B514&gt;10000,10000,C513*$F$1/Parameters!B514))</f>
@@ -22439,7 +22439,7 @@
       </c>
       <c r="B522" s="1">
         <f t="shared" si="8"/>
-        <v>5362.9814702575077</v>
+        <v>3.475185177819514</v>
       </c>
       <c r="C522" s="1">
         <f>IF(C521*$F$1/Parameters!B522&lt;1,1,IF(C521*$F$1/Parameters!B522&gt;10000,10000,C521*$F$1/Parameters!B522))</f>
@@ -22453,7 +22453,7 @@
       </c>
       <c r="B523" s="1">
         <f t="shared" si="8"/>
-        <v>8927.7878605274855</v>
+        <v>5.785161894682509</v>
       </c>
       <c r="C523" s="1">
         <f>IF(C522*$F$1/Parameters!B523&lt;1,1,IF(C522*$F$1/Parameters!B523&gt;10000,10000,C522*$F$1/Parameters!B523))</f>
@@ -22467,7 +22467,7 @@
       </c>
       <c r="B524" s="1">
         <f t="shared" si="8"/>
-        <v>9373.3490365508478</v>
+        <v>6.0738833089397675</v>
       </c>
       <c r="C524" s="1">
         <f>IF(C523*$F$1/Parameters!B524&lt;1,1,IF(C523*$F$1/Parameters!B524&gt;10000,10000,C523*$F$1/Parameters!B524))</f>
@@ -22481,7 +22481,7 @@
       </c>
       <c r="B525" s="1">
         <f t="shared" si="8"/>
-        <v>6576.9742679681494</v>
+        <v>4.2618464407720209</v>
       </c>
       <c r="C525" s="1">
         <f>IF(C524*$F$1/Parameters!B525&lt;1,1,IF(C524*$F$1/Parameters!B525&gt;10000,10000,C524*$F$1/Parameters!B525))</f>
@@ -22495,7 +22495,7 @@
       </c>
       <c r="B526" s="1">
         <f t="shared" si="8"/>
-        <v>1308.6796180688543</v>
+        <v>1</v>
       </c>
       <c r="C526" s="1">
         <f>IF(C525*$F$1/Parameters!B526&lt;1,1,IF(C525*$F$1/Parameters!B526&gt;10000,10000,C525*$F$1/Parameters!B526))</f>
@@ -22593,7 +22593,7 @@
       </c>
       <c r="B533" s="1">
         <f t="shared" si="8"/>
-        <v>696.10733834503571</v>
+        <v>1</v>
       </c>
       <c r="C533" s="1">
         <f>IF(C532*$F$1/Parameters!B533&lt;1,1,IF(C532*$F$1/Parameters!B533&gt;10000,10000,C532*$F$1/Parameters!B533))</f>
@@ -22607,7 +22607,7 @@
       </c>
       <c r="B534" s="1">
         <f t="shared" si="8"/>
-        <v>6140.4883554899043</v>
+        <v>3.9790057519156807</v>
       </c>
       <c r="C534" s="1">
         <f>IF(C533*$F$1/Parameters!B534&lt;1,1,IF(C533*$F$1/Parameters!B534&gt;10000,10000,C533*$F$1/Parameters!B534))</f>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="B535" s="1">
         <f t="shared" si="8"/>
-        <v>9233.1412366392651</v>
+        <v>5.9830293556360612</v>
       </c>
       <c r="C535" s="1">
         <f>IF(C534*$F$1/Parameters!B535&lt;1,1,IF(C534*$F$1/Parameters!B535&gt;10000,10000,C534*$F$1/Parameters!B535))</f>
@@ -22635,7 +22635,7 @@
       </c>
       <c r="B536" s="1">
         <f t="shared" si="8"/>
-        <v>9122.4661091943435</v>
+        <v>5.9113124264273891</v>
       </c>
       <c r="C536" s="1">
         <f>IF(C535*$F$1/Parameters!B536&lt;1,1,IF(C535*$F$1/Parameters!B536&gt;10000,10000,C535*$F$1/Parameters!B536))</f>
@@ -22649,7 +22649,7 @@
       </c>
       <c r="B537" s="1">
         <f t="shared" si="8"/>
-        <v>5838.9387258677816</v>
+        <v>3.7836030996686936</v>
       </c>
       <c r="C537" s="1">
         <f>IF(C536*$F$1/Parameters!B537&lt;1,1,IF(C536*$F$1/Parameters!B537&gt;10000,10000,C536*$F$1/Parameters!B537))</f>
@@ -22663,7 +22663,7 @@
       </c>
       <c r="B538" s="1">
         <f t="shared" si="8"/>
-        <v>286.71859268092385</v>
+        <v>1</v>
       </c>
       <c r="C538" s="1">
         <f>IF(C537*$F$1/Parameters!B538&lt;1,1,IF(C537*$F$1/Parameters!B538&gt;10000,10000,C537*$F$1/Parameters!B538))</f>
@@ -22761,7 +22761,7 @@
       </c>
       <c r="B545" s="1">
         <f t="shared" si="8"/>
-        <v>1707.4961780728045</v>
+        <v>1.1064489859102871</v>
       </c>
       <c r="C545" s="1">
         <f>IF(C544*$F$1/Parameters!B545&lt;1,1,IF(C544*$F$1/Parameters!B545&gt;10000,10000,C544*$F$1/Parameters!B545))</f>
@@ -22775,7 +22775,7 @@
       </c>
       <c r="B546" s="1">
         <f t="shared" si="8"/>
-        <v>6851.3080760904377</v>
+        <v>4.4396133767662231</v>
       </c>
       <c r="C546" s="1">
         <f>IF(C545*$F$1/Parameters!B546&lt;1,1,IF(C545*$F$1/Parameters!B546&gt;10000,10000,C545*$F$1/Parameters!B546))</f>
@@ -22789,7 +22789,7 @@
       </c>
       <c r="B547" s="1">
         <f t="shared" si="8"/>
-        <v>9447.6589166476952</v>
+        <v>6.1220357396931231</v>
       </c>
       <c r="C547" s="1">
         <f>IF(C546*$F$1/Parameters!B547&lt;1,1,IF(C546*$F$1/Parameters!B547&gt;10000,10000,C546*$F$1/Parameters!B547))</f>
@@ -22803,7 +22803,7 @@
       </c>
       <c r="B548" s="1">
         <f t="shared" si="8"/>
-        <v>8781.6116764150884</v>
+        <v>5.6904404582585952</v>
       </c>
       <c r="C548" s="1">
         <f>IF(C547*$F$1/Parameters!B548&lt;1,1,IF(C547*$F$1/Parameters!B548&gt;10000,10000,C547*$F$1/Parameters!B548))</f>
@@ -22817,7 +22817,7 @@
       </c>
       <c r="B549" s="1">
         <f t="shared" si="8"/>
-        <v>5036.5706256824215</v>
+        <v>3.2636725825890807</v>
       </c>
       <c r="C549" s="1">
         <f>IF(C548*$F$1/Parameters!B549&lt;1,1,IF(C548*$F$1/Parameters!B549&gt;10000,10000,C548*$F$1/Parameters!B549))</f>
@@ -22929,7 +22929,7 @@
       </c>
       <c r="B557" s="1">
         <f t="shared" si="8"/>
-        <v>2686.8122296355</v>
+        <v>1.7410408907426558</v>
       </c>
       <c r="C557" s="1">
         <f>IF(C556*$F$1/Parameters!B557&lt;1,1,IF(C556*$F$1/Parameters!B557&gt;10000,10000,C556*$F$1/Parameters!B557))</f>
@@ -22943,7 +22943,7 @@
       </c>
       <c r="B558" s="1">
         <f t="shared" si="8"/>
-        <v>7489.8902993663887</v>
+        <v>4.8534114645379232</v>
       </c>
       <c r="C558" s="1">
         <f>IF(C557*$F$1/Parameters!B558&lt;1,1,IF(C557*$F$1/Parameters!B558&gt;10000,10000,C557*$F$1/Parameters!B558))</f>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="B559" s="1">
         <f t="shared" si="8"/>
-        <v>9569.6658703615594</v>
+        <v>6.2010956356649389</v>
       </c>
       <c r="C559" s="1">
         <f>IF(C558*$F$1/Parameters!B559&lt;1,1,IF(C558*$F$1/Parameters!B559&gt;10000,10000,C558*$F$1/Parameters!B559))</f>
@@ -22971,7 +22971,7 @@
       </c>
       <c r="B560" s="1">
         <f t="shared" si="8"/>
-        <v>8353.4472506147285</v>
+        <v>5.4129920511620906</v>
       </c>
       <c r="C560" s="1">
         <f>IF(C559*$F$1/Parameters!B560&lt;1,1,IF(C559*$F$1/Parameters!B560&gt;10000,10000,C559*$F$1/Parameters!B560))</f>
@@ -22985,7 +22985,7 @@
       </c>
       <c r="B561" s="1">
         <f t="shared" si="8"/>
-        <v>4176.1351423488159</v>
+        <v>2.7061146915663206</v>
       </c>
       <c r="C561" s="1">
         <f>IF(C560*$F$1/Parameters!B561&lt;1,1,IF(C560*$F$1/Parameters!B561&gt;10000,10000,C560*$F$1/Parameters!B561))</f>
@@ -23097,7 +23097,7 @@
       </c>
       <c r="B569" s="1">
         <f t="shared" si="8"/>
-        <v>3626.4086456821533</v>
+        <v>2.3498946703588071</v>
       </c>
       <c r="C569" s="1">
         <f>IF(C568*$F$1/Parameters!B569&lt;1,1,IF(C568*$F$1/Parameters!B569&gt;10000,10000,C568*$F$1/Parameters!B569))</f>
@@ -23111,7 +23111,7 @@
       </c>
       <c r="B570" s="1">
         <f t="shared" si="8"/>
-        <v>8051.2487486457449</v>
+        <v>5.2171689328786996</v>
       </c>
       <c r="C570" s="1">
         <f>IF(C569*$F$1/Parameters!B570&lt;1,1,IF(C569*$F$1/Parameters!B570&gt;10000,10000,C569*$F$1/Parameters!B570))</f>
@@ -23125,7 +23125,7 @@
       </c>
       <c r="B571" s="1">
         <f t="shared" si="8"/>
-        <v>9598.2094241783816</v>
+        <v>6.2195917158204699</v>
       </c>
       <c r="C571" s="1">
         <f>IF(C570*$F$1/Parameters!B571&lt;1,1,IF(C570*$F$1/Parameters!B571&gt;10000,10000,C570*$F$1/Parameters!B571))</f>
@@ -23139,7 +23139,7 @@
       </c>
       <c r="B572" s="1">
         <f t="shared" si="8"/>
-        <v>7841.3160916121815</v>
+        <v>5.081133620784235</v>
       </c>
       <c r="C572" s="1">
         <f>IF(C571*$F$1/Parameters!B572&lt;1,1,IF(C571*$F$1/Parameters!B572&gt;10000,10000,C571*$F$1/Parameters!B572))</f>
@@ -23153,7 +23153,7 @@
       </c>
       <c r="B573" s="1">
         <f t="shared" si="8"/>
-        <v>3264.3508615430719</v>
+        <v>2.1152830365256028</v>
       </c>
       <c r="C573" s="1">
         <f>IF(C572*$F$1/Parameters!B573&lt;1,1,IF(C572*$F$1/Parameters!B573&gt;10000,10000,C572*$F$1/Parameters!B573))</f>
@@ -23265,7 +23265,7 @@
       </c>
       <c r="B581" s="1">
         <f t="shared" si="9"/>
-        <v>4518.9487238748761</v>
+        <v>2.9282561783273007</v>
       </c>
       <c r="C581" s="1">
         <f>IF(C580*$F$1/Parameters!B581&lt;1,1,IF(C580*$F$1/Parameters!B581&gt;10000,10000,C580*$F$1/Parameters!B581))</f>
@@ -23279,7 +23279,7 @@
       </c>
       <c r="B582" s="1">
         <f t="shared" si="9"/>
-        <v>8531.000137895393</v>
+        <v>5.5280454343555254</v>
       </c>
       <c r="C582" s="1">
         <f>IF(C581*$F$1/Parameters!B582&lt;1,1,IF(C581*$F$1/Parameters!B582&gt;10000,10000,C581*$F$1/Parameters!B582))</f>
@@ -23293,7 +23293,7 @@
       </c>
       <c r="B583" s="1">
         <f t="shared" si="9"/>
-        <v>9533.0666998980705</v>
+        <v>6.1773795562004494</v>
       </c>
       <c r="C583" s="1">
         <f>IF(C582*$F$1/Parameters!B583&lt;1,1,IF(C582*$F$1/Parameters!B583&gt;10000,10000,C582*$F$1/Parameters!B583))</f>
@@ -23307,7 +23307,7 @@
       </c>
       <c r="B584" s="1">
         <f t="shared" si="9"/>
-        <v>7249.2171012842427</v>
+        <v>4.697456435546683</v>
       </c>
       <c r="C584" s="1">
         <f>IF(C583*$F$1/Parameters!B584&lt;1,1,IF(C583*$F$1/Parameters!B584&gt;10000,10000,C583*$F$1/Parameters!B584))</f>
@@ -23321,7 +23321,7 @@
       </c>
       <c r="B585" s="1">
         <f t="shared" si="9"/>
-        <v>2308.3373185788555</v>
+        <v>1.4957910407525055</v>
       </c>
       <c r="C585" s="1">
         <f>IF(C584*$F$1/Parameters!B585&lt;1,1,IF(C584*$F$1/Parameters!B585&gt;10000,10000,C584*$F$1/Parameters!B585))</f>
@@ -23433,7 +23433,7 @@
       </c>
       <c r="B593" s="1">
         <f t="shared" si="9"/>
-        <v>5357.4631944649755</v>
+        <v>3.4716093626973321</v>
       </c>
       <c r="C593" s="1">
         <f>IF(C592*$F$1/Parameters!B593&lt;1,1,IF(C592*$F$1/Parameters!B593&gt;10000,10000,C592*$F$1/Parameters!B593))</f>
@@ -23447,7 +23447,7 @@
       </c>
       <c r="B594" s="1">
         <f t="shared" si="9"/>
-        <v>8925.398397974368</v>
+        <v>5.7836135348954016</v>
       </c>
       <c r="C594" s="1">
         <f>IF(C593*$F$1/Parameters!B594&lt;1,1,IF(C593*$F$1/Parameters!B594&gt;10000,10000,C593*$F$1/Parameters!B594))</f>
@@ -23461,7 +23461,7 @@
       </c>
       <c r="B595" s="1">
         <f t="shared" si="9"/>
-        <v>9374.746355035024</v>
+        <v>6.0747887643309211</v>
       </c>
       <c r="C595" s="1">
         <f>IF(C594*$F$1/Parameters!B595&lt;1,1,IF(C594*$F$1/Parameters!B595&gt;10000,10000,C594*$F$1/Parameters!B595))</f>
@@ -23475,7 +23475,7 @@
       </c>
       <c r="B596" s="1">
         <f t="shared" si="9"/>
-        <v>6581.7735987202686</v>
+        <v>4.2649563831027404</v>
       </c>
       <c r="C596" s="1">
         <f>IF(C595*$F$1/Parameters!B596&lt;1,1,IF(C595*$F$1/Parameters!B596&gt;10000,10000,C595*$F$1/Parameters!B596))</f>
@@ -23489,7 +23489,7 @@
       </c>
       <c r="B597" s="1">
         <f t="shared" si="9"/>
-        <v>1315.5594065484847</v>
+        <v>1</v>
       </c>
       <c r="C597" s="1">
         <f>IF(C596*$F$1/Parameters!B597&lt;1,1,IF(C596*$F$1/Parameters!B597&gt;10000,10000,C596*$F$1/Parameters!B597))</f>
@@ -23587,7 +23587,7 @@
       </c>
       <c r="B604" s="1">
         <f t="shared" si="9"/>
-        <v>689.11707806982395</v>
+        <v>1</v>
       </c>
       <c r="C604" s="1">
         <f>IF(C603*$F$1/Parameters!B604&lt;1,1,IF(C603*$F$1/Parameters!B604&gt;10000,10000,C603*$F$1/Parameters!B604))</f>
@@ -23601,7 +23601,7 @@
       </c>
       <c r="B605" s="1">
         <f t="shared" si="9"/>
-        <v>6135.4046388249844</v>
+        <v>3.9757115289353955</v>
       </c>
       <c r="C605" s="1">
         <f>IF(C604*$F$1/Parameters!B605&lt;1,1,IF(C604*$F$1/Parameters!B605&gt;10000,10000,C604*$F$1/Parameters!B605))</f>
@@ -23615,7 +23615,7 @@
       </c>
       <c r="B606" s="1">
         <f t="shared" si="9"/>
-        <v>9231.3639272714281</v>
+        <v>5.981877668052249</v>
       </c>
       <c r="C606" s="1">
         <f>IF(C605*$F$1/Parameters!B606&lt;1,1,IF(C605*$F$1/Parameters!B606&gt;10000,10000,C605*$F$1/Parameters!B606))</f>
@@ -23629,7 +23629,7 @@
       </c>
       <c r="B607" s="1">
         <f t="shared" si="9"/>
-        <v>9124.4846110397048</v>
+        <v>5.9126204055306735</v>
       </c>
       <c r="C607" s="1">
         <f>IF(C606*$F$1/Parameters!B607&lt;1,1,IF(C606*$F$1/Parameters!B607&gt;10000,10000,C606*$F$1/Parameters!B607))</f>
@@ -23643,7 +23643,7 @@
       </c>
       <c r="B608" s="1">
         <f t="shared" si="9"/>
-        <v>5844.1972197056239</v>
+        <v>3.7870105773831457</v>
       </c>
       <c r="C608" s="1">
         <f>IF(C607*$F$1/Parameters!B608&lt;1,1,IF(C607*$F$1/Parameters!B608&gt;10000,10000,C607*$F$1/Parameters!B608))</f>
@@ -23657,7 +23657,7 @@
       </c>
       <c r="B609" s="1">
         <f t="shared" si="9"/>
-        <v>293.76908778792085</v>
+        <v>1</v>
       </c>
       <c r="C609" s="1">
         <f>IF(C608*$F$1/Parameters!B609&lt;1,1,IF(C608*$F$1/Parameters!B609&gt;10000,10000,C608*$F$1/Parameters!B609))</f>
@@ -23755,7 +23755,7 @@
       </c>
       <c r="B616" s="1">
         <f t="shared" si="9"/>
-        <v>1700.6978041195489</v>
+        <v>1.1020436735804471</v>
       </c>
       <c r="C616" s="1">
         <f>IF(C615*$F$1/Parameters!B616&lt;1,1,IF(C615*$F$1/Parameters!B616&gt;10000,10000,C615*$F$1/Parameters!B616))</f>
@@ -23769,7 +23769,7 @@
       </c>
       <c r="B617" s="1">
         <f t="shared" si="9"/>
-        <v>6846.6986140173758</v>
+        <v>4.4366264683901893</v>
       </c>
       <c r="C617" s="1">
         <f>IF(C616*$F$1/Parameters!B617&lt;1,1,IF(C616*$F$1/Parameters!B617&gt;10000,10000,C616*$F$1/Parameters!B617))</f>
@@ -23783,7 +23783,7 @@
       </c>
       <c r="B618" s="1">
         <f t="shared" si="9"/>
-        <v>9446.5076383275573</v>
+        <v>6.1212897170980654</v>
       </c>
       <c r="C618" s="1">
         <f>IF(C617*$F$1/Parameters!B618&lt;1,1,IF(C617*$F$1/Parameters!B618&gt;10000,10000,C617*$F$1/Parameters!B618))</f>
@@ -23797,7 +23797,7 @@
       </c>
       <c r="B619" s="1">
         <f t="shared" si="9"/>
-        <v>8784.2356004427311</v>
+        <v>5.6921407479088879</v>
       </c>
       <c r="C619" s="1">
         <f>IF(C618*$F$1/Parameters!B619&lt;1,1,IF(C618*$F$1/Parameters!B619&gt;10000,10000,C618*$F$1/Parameters!B619))</f>
@@ -23811,7 +23811,7 @@
       </c>
       <c r="B620" s="1">
         <f t="shared" si="9"/>
-        <v>5042.2472224195299</v>
+        <v>3.2673509888917436</v>
       </c>
       <c r="C620" s="1">
         <f>IF(C619*$F$1/Parameters!B620&lt;1,1,IF(C619*$F$1/Parameters!B620&gt;10000,10000,C619*$F$1/Parameters!B620))</f>
@@ -23923,7 +23923,7 @@
       </c>
       <c r="B628" s="1">
         <f t="shared" si="9"/>
-        <v>2680.2588261211949</v>
+        <v>1.7367943180324037</v>
       </c>
       <c r="C628" s="1">
         <f>IF(C627*$F$1/Parameters!B628&lt;1,1,IF(C627*$F$1/Parameters!B628&gt;10000,10000,C627*$F$1/Parameters!B628))</f>
@@ -23937,7 +23937,7 @@
       </c>
       <c r="B629" s="1">
         <f t="shared" si="9"/>
-        <v>7485.7910842012379</v>
+        <v>4.8507551936069815</v>
       </c>
       <c r="C629" s="1">
         <f>IF(C628*$F$1/Parameters!B629&lt;1,1,IF(C628*$F$1/Parameters!B629&gt;10000,10000,C628*$F$1/Parameters!B629))</f>
@@ -23951,7 +23951,7 @@
       </c>
       <c r="B630" s="1">
         <f t="shared" si="9"/>
-        <v>9569.1496126789079</v>
+        <v>6.2007611032678689</v>
       </c>
       <c r="C630" s="1">
         <f>IF(C629*$F$1/Parameters!B630&lt;1,1,IF(C629*$F$1/Parameters!B630&gt;10000,10000,C629*$F$1/Parameters!B630))</f>
@@ -23965,7 +23965,7 @@
       </c>
       <c r="B631" s="1">
         <f t="shared" si="9"/>
-        <v>8356.6561082944518</v>
+        <v>5.4150713748942634</v>
       </c>
       <c r="C631" s="1">
         <f>IF(C630*$F$1/Parameters!B631&lt;1,1,IF(C630*$F$1/Parameters!B631&gt;10000,10000,C630*$F$1/Parameters!B631))</f>
@@ -23979,7 +23979,7 @@
       </c>
       <c r="B632" s="1">
         <f t="shared" si="9"/>
-        <v>4182.1855171028883</v>
+        <v>2.7100353041550864</v>
       </c>
       <c r="C632" s="1">
         <f>IF(C631*$F$1/Parameters!B632&lt;1,1,IF(C631*$F$1/Parameters!B632&gt;10000,10000,C631*$F$1/Parameters!B632))</f>
@@ -24091,7 +24091,7 @@
       </c>
       <c r="B640" s="1">
         <f t="shared" si="9"/>
-        <v>3620.1513839076497</v>
+        <v>2.3458399960152376</v>
       </c>
       <c r="C640" s="1">
         <f>IF(C639*$F$1/Parameters!B640&lt;1,1,IF(C639*$F$1/Parameters!B640&gt;10000,10000,C639*$F$1/Parameters!B640))</f>
@@ -24105,7 +24105,7 @@
       </c>
       <c r="B641" s="1">
         <f t="shared" si="9"/>
-        <v>8047.6917885155817</v>
+        <v>5.2148640404991546</v>
       </c>
       <c r="C641" s="1">
         <f>IF(C640*$F$1/Parameters!B641&lt;1,1,IF(C640*$F$1/Parameters!B641&gt;10000,10000,C640*$F$1/Parameters!B641))</f>
@@ -24119,7 +24119,7 @@
       </c>
       <c r="B642" s="1">
         <f t="shared" si="9"/>
-        <v>9598.3322182564534</v>
+        <v>6.2196712857690901</v>
       </c>
       <c r="C642" s="1">
         <f>IF(C641*$F$1/Parameters!B642&lt;1,1,IF(C641*$F$1/Parameters!B642&gt;10000,10000,C641*$F$1/Parameters!B642))</f>
@@ -24133,7 +24133,7 @@
       </c>
       <c r="B643" s="1">
         <f t="shared" ref="B643:B706" si="10">IF(A643*$H$1&lt;1,1,IF(A643*$H$1&gt;10000,10000,A643*$H$1))</f>
-        <v>7845.0848270442002</v>
+        <v>5.0835757425005061</v>
       </c>
       <c r="C643" s="1">
         <f>IF(C642*$F$1/Parameters!B643&lt;1,1,IF(C642*$F$1/Parameters!B643&gt;10000,10000,C642*$F$1/Parameters!B643))</f>
@@ -24147,7 +24147,7 @@
       </c>
       <c r="B644" s="1">
         <f t="shared" si="10"/>
-        <v>3270.7277708403767</v>
+        <v>2.1194152418657102</v>
       </c>
       <c r="C644" s="1">
         <f>IF(C643*$F$1/Parameters!B644&lt;1,1,IF(C643*$F$1/Parameters!B644&gt;10000,10000,C643*$F$1/Parameters!B644))</f>
@@ -24259,7 +24259,7 @@
       </c>
       <c r="B652" s="1">
         <f t="shared" si="10"/>
-        <v>4513.0364627612016</v>
+        <v>2.9244250626869448</v>
       </c>
       <c r="C652" s="1">
         <f>IF(C651*$F$1/Parameters!B652&lt;1,1,IF(C651*$F$1/Parameters!B652&gt;10000,10000,C651*$F$1/Parameters!B652))</f>
@@ -24273,7 +24273,7 @@
       </c>
       <c r="B653" s="1">
         <f t="shared" si="10"/>
-        <v>8528.0132068075</v>
+        <v>5.5261099179452264</v>
       </c>
       <c r="C653" s="1">
         <f>IF(C652*$F$1/Parameters!B653&lt;1,1,IF(C652*$F$1/Parameters!B653&gt;10000,10000,C652*$F$1/Parameters!B653))</f>
@@ -24287,7 +24287,7 @@
       </c>
       <c r="B654" s="1">
         <f t="shared" si="10"/>
-        <v>9533.8275869171175</v>
+        <v>6.1778726071843577</v>
       </c>
       <c r="C654" s="1">
         <f>IF(C653*$F$1/Parameters!B654&lt;1,1,IF(C653*$F$1/Parameters!B654&gt;10000,10000,C653*$F$1/Parameters!B654))</f>
@@ -24301,7 +24301,7 @@
       </c>
       <c r="B655" s="1">
         <f t="shared" si="10"/>
-        <v>7253.5162868445432</v>
+        <v>4.7002422862938298</v>
       </c>
       <c r="C655" s="1">
         <f>IF(C654*$F$1/Parameters!B655&lt;1,1,IF(C654*$F$1/Parameters!B655&gt;10000,10000,C654*$F$1/Parameters!B655))</f>
@@ -24315,7 +24315,7 @@
       </c>
       <c r="B656" s="1">
         <f t="shared" si="10"/>
-        <v>2314.9909692480351</v>
+        <v>1.5001025731178805</v>
       </c>
       <c r="C656" s="1">
         <f>IF(C655*$F$1/Parameters!B656&lt;1,1,IF(C655*$F$1/Parameters!B656&gt;10000,10000,C655*$F$1/Parameters!B656))</f>
@@ -24427,7 +24427,7 @@
       </c>
       <c r="B664" s="1">
         <f t="shared" si="10"/>
-        <v>5351.9420990455383</v>
+        <v>3.4680317204710138</v>
       </c>
       <c r="C664" s="1">
         <f>IF(C663*$F$1/Parameters!B664&lt;1,1,IF(C663*$F$1/Parameters!B664&gt;10000,10000,C663*$F$1/Parameters!B664))</f>
@@ -24441,7 +24441,7 @@
       </c>
       <c r="B665" s="1">
         <f t="shared" si="10"/>
-        <v>8923.0048189469308</v>
+        <v>5.7820625076535164</v>
       </c>
       <c r="C665" s="1">
         <f>IF(C664*$F$1/Parameters!B665&lt;1,1,IF(C664*$F$1/Parameters!B665&gt;10000,10000,C664*$F$1/Parameters!B665))</f>
@@ -24455,7 +24455,7 @@
       </c>
       <c r="B666" s="1">
         <f t="shared" si="10"/>
-        <v>9376.1393937191169</v>
+        <v>6.0756914464330185</v>
       </c>
       <c r="C666" s="1">
         <f>IF(C665*$F$1/Parameters!B666&lt;1,1,IF(C665*$F$1/Parameters!B666&gt;10000,10000,C665*$F$1/Parameters!B666))</f>
@@ -24469,7 +24469,7 @@
       </c>
       <c r="B667" s="1">
         <f t="shared" si="10"/>
-        <v>6586.5696648419462</v>
+        <v>4.268064209969257</v>
       </c>
       <c r="C667" s="1">
         <f>IF(C666*$F$1/Parameters!B667&lt;1,1,IF(C666*$F$1/Parameters!B667&gt;10000,10000,C666*$F$1/Parameters!B667))</f>
@@ -24483,7 +24483,7 @@
       </c>
       <c r="B668" s="1">
         <f t="shared" si="10"/>
-        <v>1322.4378445233183</v>
+        <v>1</v>
       </c>
       <c r="C668" s="1">
         <f>IF(C667*$F$1/Parameters!B668&lt;1,1,IF(C667*$F$1/Parameters!B668&gt;10000,10000,C667*$F$1/Parameters!B668))</f>
@@ -24581,7 +24581,7 @@
       </c>
       <c r="B675" s="1">
         <f t="shared" si="10"/>
-        <v>682.12569498456287</v>
+        <v>1</v>
       </c>
       <c r="C675" s="1">
         <f>IF(C674*$F$1/Parameters!B675&lt;1,1,IF(C674*$F$1/Parameters!B675&gt;10000,10000,C674*$F$1/Parameters!B675))</f>
@@ -24595,7 +24595,7 @@
       </c>
       <c r="B676" s="1">
         <f t="shared" si="10"/>
-        <v>6130.3178197725974</v>
+        <v>3.9724152956235446</v>
       </c>
       <c r="C676" s="1">
         <f>IF(C675*$F$1/Parameters!B676&lt;1,1,IF(C675*$F$1/Parameters!B676&gt;10000,10000,C675*$F$1/Parameters!B676))</f>
@@ -24609,7 +24609,7 @@
       </c>
       <c r="B677" s="1">
         <f t="shared" si="10"/>
-        <v>9229.5823902191187</v>
+        <v>5.980723240950037</v>
       </c>
       <c r="C677" s="1">
         <f>IF(C676*$F$1/Parameters!B677&lt;1,1,IF(C676*$F$1/Parameters!B677&gt;10000,10000,C676*$F$1/Parameters!B677))</f>
@@ -24623,7 +24623,7 @@
       </c>
       <c r="B678" s="1">
         <f t="shared" si="10"/>
-        <v>9126.4989240483173</v>
+        <v>5.9139256702886893</v>
       </c>
       <c r="C678" s="1">
         <f>IF(C677*$F$1/Parameters!B678&lt;1,1,IF(C677*$F$1/Parameters!B678&gt;10000,10000,C677*$F$1/Parameters!B678))</f>
@@ -24637,7 +24637,7 @@
       </c>
       <c r="B679" s="1">
         <f t="shared" si="10"/>
-        <v>5849.4527170019774</v>
+        <v>3.7904161133536962</v>
       </c>
       <c r="C679" s="1">
         <f>IF(C678*$F$1/Parameters!B679&lt;1,1,IF(C678*$F$1/Parameters!B679&gt;10000,10000,C678*$F$1/Parameters!B679))</f>
@@ -24651,7 +24651,7 @@
       </c>
       <c r="B680" s="1">
         <f t="shared" si="10"/>
-        <v>300.81860378311285</v>
+        <v>1</v>
       </c>
       <c r="C680" s="1">
         <f>IF(C679*$F$1/Parameters!B680&lt;1,1,IF(C679*$F$1/Parameters!B680&gt;10000,10000,C679*$F$1/Parameters!B680))</f>
@@ -24749,7 +24749,7 @@
       </c>
       <c r="B687" s="1">
         <f t="shared" si="10"/>
-        <v>1693.8979396741597</v>
+        <v>1.0976373954191572</v>
       </c>
       <c r="C687" s="1">
         <f>IF(C686*$F$1/Parameters!B687&lt;1,1,IF(C686*$F$1/Parameters!B687&gt;10000,10000,C686*$F$1/Parameters!B687))</f>
@@ -24763,7 +24763,7 @@
       </c>
       <c r="B688" s="1">
         <f t="shared" si="10"/>
-        <v>6842.0857910208315</v>
+        <v>4.4336373821525434</v>
       </c>
       <c r="C688" s="1">
         <f>IF(C687*$F$1/Parameters!B688&lt;1,1,IF(C687*$F$1/Parameters!B688&gt;10000,10000,C687*$F$1/Parameters!B688))</f>
@@ -24777,7 +24777,7 @@
       </c>
       <c r="B689" s="1">
         <f t="shared" si="10"/>
-        <v>9445.3520541240614</v>
+        <v>6.1205409043121213</v>
       </c>
       <c r="C689" s="1">
         <f>IF(C688*$F$1/Parameters!B689&lt;1,1,IF(C688*$F$1/Parameters!B689&gt;10000,10000,C688*$F$1/Parameters!B689))</f>
@@ -24791,7 +24791,7 @@
       </c>
       <c r="B690" s="1">
         <f t="shared" si="10"/>
-        <v>8786.8554593048902</v>
+        <v>5.6938384033522729</v>
       </c>
       <c r="C690" s="1">
         <f>IF(C689*$F$1/Parameters!B690&lt;1,1,IF(C689*$F$1/Parameters!B690&gt;10000,10000,C689*$F$1/Parameters!B690))</f>
@@ -24805,7 +24805,7 @@
       </c>
       <c r="B691" s="1">
         <f t="shared" si="10"/>
-        <v>5047.9211141021669</v>
+        <v>3.2710276423326339</v>
       </c>
       <c r="C691" s="1">
         <f>IF(C690*$F$1/Parameters!B691&lt;1,1,IF(C690*$F$1/Parameters!B691&gt;10000,10000,C690*$F$1/Parameters!B691))</f>
@@ -24917,7 +24917,7 @@
       </c>
       <c r="B699" s="1">
         <f t="shared" si="10"/>
-        <v>2673.703576070965</v>
+        <v>1.7325465487761051</v>
       </c>
       <c r="C699" s="1">
         <f>IF(C698*$F$1/Parameters!B699&lt;1,1,IF(C698*$F$1/Parameters!B699&gt;10000,10000,C698*$F$1/Parameters!B699))</f>
@@ -24931,7 +24931,7 @@
       </c>
       <c r="B700" s="1">
         <f t="shared" si="10"/>
-        <v>7481.6882758198717</v>
+        <v>4.8480965942898981</v>
       </c>
       <c r="C700" s="1">
         <f>IF(C699*$F$1/Parameters!B700&lt;1,1,IF(C699*$F$1/Parameters!B700&gt;10000,10000,C699*$F$1/Parameters!B700))</f>
@@ -24945,7 +24945,7 @@
       </c>
       <c r="B701" s="1">
         <f t="shared" si="10"/>
-        <v>9568.6290045358746</v>
+        <v>6.200423751794224</v>
       </c>
       <c r="C701" s="1">
         <f>IF(C700*$F$1/Parameters!B701&lt;1,1,IF(C700*$F$1/Parameters!B701&gt;10000,10000,C700*$F$1/Parameters!B701))</f>
@@ -24959,7 +24959,7 @@
       </c>
       <c r="B702" s="1">
         <f t="shared" si="10"/>
-        <v>8359.8610562222093</v>
+        <v>5.4171481651267106</v>
       </c>
       <c r="C702" s="1">
         <f>IF(C701*$F$1/Parameters!B702&lt;1,1,IF(C701*$F$1/Parameters!B702&gt;10000,10000,C701*$F$1/Parameters!B702))</f>
@@ -24973,7 +24973,7 @@
       </c>
       <c r="B703" s="1">
         <f t="shared" si="10"/>
-        <v>4188.2334994115317</v>
+        <v>2.7139543664511754</v>
       </c>
       <c r="C703" s="1">
         <f>IF(C702*$F$1/Parameters!B703&lt;1,1,IF(C702*$F$1/Parameters!B703&gt;10000,10000,C702*$F$1/Parameters!B703))</f>
@@ -25085,7 +25085,7 @@
       </c>
       <c r="B711" s="1">
         <f t="shared" si="11"/>
-        <v>3613.8919339718368</v>
+        <v>2.3417839037540804</v>
       </c>
       <c r="C711" s="1">
         <f>IF(C710*$F$1/Parameters!B711&lt;1,1,IF(C710*$F$1/Parameters!B711&gt;10000,10000,C710*$F$1/Parameters!B711))</f>
@@ -25099,7 +25099,7 @@
       </c>
       <c r="B712" s="1">
         <f t="shared" si="11"/>
-        <v>8044.1310309335786</v>
+        <v>5.2125566873898048</v>
       </c>
       <c r="C712" s="1">
         <f>IF(C711*$F$1/Parameters!B712&lt;1,1,IF(C711*$F$1/Parameters!B712&gt;10000,10000,C711*$F$1/Parameters!B712))</f>
@@ -25113,7 +25113,7 @@
       </c>
       <c r="B713" s="1">
         <f t="shared" si="11"/>
-        <v>9598.4506512670614</v>
+        <v>6.2197480297677998</v>
       </c>
       <c r="C713" s="1">
         <f>IF(C712*$F$1/Parameters!B713&lt;1,1,IF(C712*$F$1/Parameters!B713&gt;10000,10000,C712*$F$1/Parameters!B713))</f>
@@ -25127,7 +25127,7 @@
       </c>
       <c r="B714" s="1">
         <f t="shared" si="11"/>
-        <v>7848.8498386664987</v>
+        <v>5.0860154512066984</v>
       </c>
       <c r="C714" s="1">
         <f>IF(C713*$F$1/Parameters!B714&lt;1,1,IF(C713*$F$1/Parameters!B714&gt;10000,10000,C713*$F$1/Parameters!B714))</f>
@@ -25141,7 +25141,7 @@
       </c>
       <c r="B715" s="1">
         <f t="shared" si="11"/>
-        <v>3277.1026189823524</v>
+        <v>2.1235461115874696</v>
       </c>
       <c r="C715" s="1">
         <f>IF(C714*$F$1/Parameters!B715&lt;1,1,IF(C714*$F$1/Parameters!B715&gt;10000,10000,C714*$F$1/Parameters!B715))</f>
@@ -25253,7 +25253,7 @@
       </c>
       <c r="B723" s="1">
         <f t="shared" si="11"/>
-        <v>4507.1216889467742</v>
+        <v>2.9205923188290654</v>
       </c>
       <c r="C723" s="1">
         <f>IF(C722*$F$1/Parameters!B723&lt;1,1,IF(C722*$F$1/Parameters!B723&gt;10000,10000,C722*$F$1/Parameters!B723))</f>
@@ -25267,7 +25267,7 @@
       </c>
       <c r="B724" s="1">
         <f t="shared" si="11"/>
-        <v>8525.0223036839961</v>
+        <v>5.524171827675711</v>
       </c>
       <c r="C724" s="1">
         <f>IF(C723*$F$1/Parameters!B724&lt;1,1,IF(C723*$F$1/Parameters!B724&gt;10000,10000,C723*$F$1/Parameters!B724))</f>
@@ -25281,7 +25281,7 @@
       </c>
       <c r="B725" s="1">
         <f t="shared" si="11"/>
-        <v>9534.5841363143809</v>
+        <v>6.1783628474110373</v>
       </c>
       <c r="C725" s="1">
         <f>IF(C724*$F$1/Parameters!B725&lt;1,1,IF(C724*$F$1/Parameters!B725&gt;10000,10000,C724*$F$1/Parameters!B725))</f>
@@ -25295,7 +25295,7 @@
       </c>
       <c r="B726" s="1">
         <f t="shared" si="11"/>
-        <v>7257.8119636142001</v>
+        <v>4.7030258633621838</v>
       </c>
       <c r="C726" s="1">
         <f>IF(C725*$F$1/Parameters!B726&lt;1,1,IF(C725*$F$1/Parameters!B726&gt;10000,10000,C725*$F$1/Parameters!B726))</f>
@@ -25309,7 +25309,7 @@
       </c>
       <c r="B727" s="1">
         <f t="shared" si="11"/>
-        <v>2321.6429061462213</v>
+        <v>1.5044129949682208</v>
       </c>
       <c r="C727" s="1">
         <f>IF(C726*$F$1/Parameters!B727&lt;1,1,IF(C726*$F$1/Parameters!B727&gt;10000,10000,C726*$F$1/Parameters!B727))</f>
@@ -25421,7 +25421,7 @@
       </c>
       <c r="B735" s="1">
         <f t="shared" si="11"/>
-        <v>5346.4181860059634</v>
+        <v>3.4644522524409349</v>
       </c>
       <c r="C735" s="1">
         <f>IF(C734*$F$1/Parameters!B735&lt;1,1,IF(C734*$F$1/Parameters!B735&gt;10000,10000,C734*$F$1/Parameters!B735))</f>
@@ -25435,7 +25435,7 @@
       </c>
       <c r="B736" s="1">
         <f t="shared" si="11"/>
-        <v>8920.6071243151673</v>
+        <v>5.7805088135206075</v>
       </c>
       <c r="C736" s="1">
         <f>IF(C735*$F$1/Parameters!B736&lt;1,1,IF(C735*$F$1/Parameters!B736&gt;10000,10000,C735*$F$1/Parameters!B736))</f>
@@ -25449,7 +25449,7 @@
       </c>
       <c r="B737" s="1">
         <f t="shared" si="11"/>
-        <v>9377.528152096791</v>
+        <v>6.0765913549179604</v>
       </c>
       <c r="C737" s="1">
         <f>IF(C736*$F$1/Parameters!B737&lt;1,1,IF(C736*$F$1/Parameters!B737&gt;10000,10000,C736*$F$1/Parameters!B737))</f>
@@ -25463,7 +25463,7 @@
       </c>
       <c r="B738" s="1">
         <f t="shared" si="11"/>
-        <v>6591.3624645899408</v>
+        <v>4.2711699202419586</v>
       </c>
       <c r="C738" s="1">
         <f>IF(C737*$F$1/Parameters!B738&lt;1,1,IF(C737*$F$1/Parameters!B738&gt;10000,10000,C737*$F$1/Parameters!B738))</f>
@@ -25477,7 +25477,7 @@
       </c>
       <c r="B739" s="1">
         <f t="shared" si="11"/>
-        <v>1329.3149294932259</v>
+        <v>1</v>
       </c>
       <c r="C739" s="1">
         <f>IF(C738*$F$1/Parameters!B739&lt;1,1,IF(C738*$F$1/Parameters!B739&gt;10000,10000,C738*$F$1/Parameters!B739))</f>
@@ -25575,7 +25575,7 @@
       </c>
       <c r="B746" s="1">
         <f t="shared" si="11"/>
-        <v>675.13319163043161</v>
+        <v>1</v>
       </c>
       <c r="C746" s="1">
         <f>IF(C745*$F$1/Parameters!B746&lt;1,1,IF(C745*$F$1/Parameters!B746&gt;10000,10000,C745*$F$1/Parameters!B746))</f>
@@ -25589,7 +25589,7 @@
       </c>
       <c r="B747" s="1">
         <f t="shared" si="11"/>
-        <v>6125.227900181666</v>
+        <v>3.9691170531782189</v>
       </c>
       <c r="C747" s="1">
         <f>IF(C746*$F$1/Parameters!B747&lt;1,1,IF(C746*$F$1/Parameters!B747&gt;10000,10000,C746*$F$1/Parameters!B747))</f>
@@ -25603,7 +25603,7 @@
       </c>
       <c r="B748" s="1">
         <f t="shared" si="11"/>
-        <v>9227.7966261298789</v>
+        <v>5.9795660747490311</v>
       </c>
       <c r="C748" s="1">
         <f>IF(C747*$F$1/Parameters!B748&lt;1,1,IF(C747*$F$1/Parameters!B748&gt;10000,10000,C747*$F$1/Parameters!B748))</f>
@@ -25617,7 +25617,7 @@
       </c>
       <c r="B749" s="1">
         <f t="shared" si="11"/>
-        <v>9128.5090474880362</v>
+        <v>5.9152282202270099</v>
       </c>
       <c r="C749" s="1">
         <f>IF(C748*$F$1/Parameters!B749&lt;1,1,IF(C748*$F$1/Parameters!B749&gt;10000,10000,C748*$F$1/Parameters!B749))</f>
@@ -25631,7 +25631,7 @@
       </c>
       <c r="B750" s="1">
         <f t="shared" si="11"/>
-        <v>5854.7052158466131</v>
+        <v>3.7938197063425263</v>
       </c>
       <c r="C750" s="1">
         <f>IF(C749*$F$1/Parameters!B750&lt;1,1,IF(C749*$F$1/Parameters!B750&gt;10000,10000,C749*$F$1/Parameters!B750))</f>
@@ -25645,7 +25645,7 @@
       </c>
       <c r="B751" s="1">
         <f t="shared" si="11"/>
-        <v>307.86713810419133</v>
+        <v>1</v>
       </c>
       <c r="C751" s="1">
         <f>IF(C750*$F$1/Parameters!B751&lt;1,1,IF(C750*$F$1/Parameters!B751&gt;10000,10000,C750*$F$1/Parameters!B751))</f>
@@ -25743,7 +25743,7 @@
       </c>
       <c r="B758" s="1">
         <f t="shared" si="11"/>
-        <v>1687.0965872082043</v>
+        <v>1.0932301530279804</v>
       </c>
       <c r="C758" s="1">
         <f>IF(C757*$F$1/Parameters!B758&lt;1,1,IF(C757*$F$1/Parameters!B758&gt;10000,10000,C757*$F$1/Parameters!B758))</f>
@@ -25757,7 +25757,7 @@
       </c>
       <c r="B759" s="1">
         <f t="shared" si="11"/>
-        <v>6837.4696087774428</v>
+        <v>4.4306461191397393</v>
       </c>
       <c r="C759" s="1">
         <f>IF(C758*$F$1/Parameters!B759&lt;1,1,IF(C758*$F$1/Parameters!B759&gt;10000,10000,C758*$F$1/Parameters!B759))</f>
@@ -25771,7 +25771,7 @@
       </c>
       <c r="B760" s="1">
         <f t="shared" si="11"/>
-        <v>9444.1921644572285</v>
+        <v>6.1197893016074625</v>
       </c>
       <c r="C760" s="1">
         <f>IF(C759*$F$1/Parameters!B760&lt;1,1,IF(C759*$F$1/Parameters!B760&gt;10000,10000,C759*$F$1/Parameters!B760))</f>
@@ -25785,7 +25785,7 @@
       </c>
       <c r="B761" s="1">
         <f t="shared" si="11"/>
-        <v>8789.4712520493176</v>
+        <v>5.6955334239716979</v>
       </c>
       <c r="C761" s="1">
         <f>IF(C760*$F$1/Parameters!B761&lt;1,1,IF(C760*$F$1/Parameters!B761&gt;10000,10000,C760*$F$1/Parameters!B761))</f>
@@ -25799,7 +25799,7 @@
       </c>
       <c r="B762" s="1">
         <f t="shared" si="11"/>
-        <v>5053.5922986680234</v>
+        <v>3.2747025415753863</v>
       </c>
       <c r="C762" s="1">
         <f>IF(C761*$F$1/Parameters!B762&lt;1,1,IF(C761*$F$1/Parameters!B762&gt;10000,10000,C761*$F$1/Parameters!B762))</f>
@@ -25911,7 +25911,7 @@
       </c>
       <c r="B770" s="1">
         <f t="shared" si="11"/>
-        <v>2667.1464818674658</v>
+        <v>1.7282975845177087</v>
       </c>
       <c r="C770" s="1">
         <f>IF(C769*$F$1/Parameters!B770&lt;1,1,IF(C769*$F$1/Parameters!B770&gt;10000,10000,C769*$F$1/Parameters!B770))</f>
@@ -25925,7 +25925,7 @@
       </c>
       <c r="B771" s="1">
         <f t="shared" ref="B771:B834" si="12">IF(A771*$H$1&lt;1,1,IF(A771*$H$1&gt;10000,10000,A771*$H$1))</f>
-        <v>7477.581875713553</v>
+        <v>4.8454356675530041</v>
       </c>
       <c r="C771" s="1">
         <f>IF(C770*$F$1/Parameters!B771&lt;1,1,IF(C770*$F$1/Parameters!B771&gt;10000,10000,C770*$F$1/Parameters!B771))</f>
@@ -25939,7 +25939,7 @@
       </c>
       <c r="B772" s="1">
         <f t="shared" si="12"/>
-        <v>9568.1040461216871</v>
+        <v>6.2000835813666226</v>
       </c>
       <c r="C772" s="1">
         <f>IF(C771*$F$1/Parameters!B772&lt;1,1,IF(C771*$F$1/Parameters!B772&gt;10000,10000,C771*$F$1/Parameters!B772))</f>
@@ -25953,7 +25953,7 @@
       </c>
       <c r="B773" s="1">
         <f t="shared" si="12"/>
-        <v>8363.0620932330894</v>
+        <v>5.4192224211045756</v>
       </c>
       <c r="C773" s="1">
         <f>IF(C772*$F$1/Parameters!B773&lt;1,1,IF(C772*$F$1/Parameters!B773&gt;10000,10000,C772*$F$1/Parameters!B773))</f>
@@ -25967,7 +25967,7 @@
       </c>
       <c r="B774" s="1">
         <f t="shared" si="12"/>
-        <v>4194.2790870764647</v>
+        <v>2.717871877030114</v>
       </c>
       <c r="C774" s="1">
         <f>IF(C773*$F$1/Parameters!B774&lt;1,1,IF(C773*$F$1/Parameters!B774&gt;10000,10000,C773*$F$1/Parameters!B774))</f>
@@ -26079,7 +26079,7 @@
       </c>
       <c r="B782" s="1">
         <f t="shared" si="12"/>
-        <v>3607.6302981498557</v>
+        <v>2.3377263950496157</v>
       </c>
       <c r="C782" s="1">
         <f>IF(C781*$F$1/Parameters!B782&lt;1,1,IF(C781*$F$1/Parameters!B782&gt;10000,10000,C781*$F$1/Parameters!B782))</f>
@@ -26093,7 +26093,7 @@
       </c>
       <c r="B783" s="1">
         <f t="shared" si="12"/>
-        <v>8040.5664771939755</v>
+        <v>5.2102468743893109</v>
       </c>
       <c r="C783" s="1">
         <f>IF(C782*$F$1/Parameters!B783&lt;1,1,IF(C782*$F$1/Parameters!B783&gt;10000,10000,C782*$F$1/Parameters!B783))</f>
@@ -26107,7 +26107,7 @@
       </c>
       <c r="B784" s="1">
         <f t="shared" si="12"/>
-        <v>9598.5647231671574</v>
+        <v>6.2198219477887013</v>
       </c>
       <c r="C784" s="1">
         <f>IF(C783*$F$1/Parameters!B784&lt;1,1,IF(C783*$F$1/Parameters!B784&gt;10000,10000,C783*$F$1/Parameters!B784))</f>
@@ -26121,7 +26121,7 @@
       </c>
       <c r="B785" s="1">
         <f t="shared" si="12"/>
-        <v>7852.6111251106013</v>
+        <v>5.0884527460160447</v>
       </c>
       <c r="C785" s="1">
         <f>IF(C784*$F$1/Parameters!B785&lt;1,1,IF(C784*$F$1/Parameters!B785&gt;10000,10000,C784*$F$1/Parameters!B785))</f>
@@ -26135,7 +26135,7 @@
       </c>
       <c r="B786" s="1">
         <f t="shared" si="12"/>
-        <v>3283.4754036519171</v>
+        <v>2.127675644189424</v>
       </c>
       <c r="C786" s="1">
         <f>IF(C785*$F$1/Parameters!B786&lt;1,1,IF(C785*$F$1/Parameters!B786&gt;10000,10000,C785*$F$1/Parameters!B786))</f>
@@ -26247,7 +26247,7 @@
       </c>
       <c r="B794" s="1">
         <f t="shared" si="12"/>
-        <v>4501.2044045814546</v>
+        <v>2.9167579481467603</v>
       </c>
       <c r="C794" s="1">
         <f>IF(C793*$F$1/Parameters!B794&lt;1,1,IF(C793*$F$1/Parameters!B794&gt;10000,10000,C793*$F$1/Parameters!B794))</f>
@@ -26261,7 +26261,7 @@
       </c>
       <c r="B795" s="1">
         <f t="shared" si="12"/>
-        <v>8522.0274296119896</v>
+        <v>5.522231164251421</v>
       </c>
       <c r="C795" s="1">
         <f>IF(C794*$F$1/Parameters!B795&lt;1,1,IF(C794*$F$1/Parameters!B795&gt;10000,10000,C794*$F$1/Parameters!B795))</f>
@@ -26275,7 +26275,7 @@
       </c>
       <c r="B796" s="1">
         <f t="shared" si="12"/>
-        <v>9535.3363478148694</v>
+        <v>6.1788502767022964</v>
       </c>
       <c r="C796" s="1">
         <f>IF(C795*$F$1/Parameters!B796&lt;1,1,IF(C795*$F$1/Parameters!B796&gt;10000,10000,C795*$F$1/Parameters!B796))</f>
@@ -26289,7 +26289,7 @@
       </c>
       <c r="B797" s="1">
         <f t="shared" si="12"/>
-        <v>7262.1041300318539</v>
+        <v>4.7058071657399916</v>
       </c>
       <c r="C797" s="1">
         <f>IF(C796*$F$1/Parameters!B797&lt;1,1,IF(C796*$F$1/Parameters!B797&gt;10000,10000,C796*$F$1/Parameters!B797))</f>
@@ -26303,7 +26303,7 @@
       </c>
       <c r="B798" s="1">
         <f t="shared" si="12"/>
-        <v>2328.2931268556158</v>
+        <v>1.5087223047368048</v>
       </c>
       <c r="C798" s="1">
         <f>IF(C797*$F$1/Parameters!B798&lt;1,1,IF(C797*$F$1/Parameters!B798&gt;10000,10000,C797*$F$1/Parameters!B798))</f>
@@ -26415,7 +26415,7 @@
       </c>
       <c r="B806" s="1">
         <f t="shared" si="12"/>
-        <v>5340.8914573540405</v>
+        <v>3.4608709599081315</v>
       </c>
       <c r="C806" s="1">
         <f>IF(C805*$F$1/Parameters!B806&lt;1,1,IF(C805*$F$1/Parameters!B806&gt;10000,10000,C805*$F$1/Parameters!B806))</f>
@@ -26429,7 +26429,7 @@
       </c>
       <c r="B807" s="1">
         <f t="shared" si="12"/>
-        <v>8918.2053149505846</v>
+        <v>5.7789524530614038</v>
       </c>
       <c r="C807" s="1">
         <f>IF(C806*$F$1/Parameters!B807&lt;1,1,IF(C806*$F$1/Parameters!B807&gt;10000,10000,C806*$F$1/Parameters!B807))</f>
@@ -26443,7 +26443,7 @@
       </c>
       <c r="B808" s="1">
         <f t="shared" si="12"/>
-        <v>9378.9126296632749</v>
+        <v>6.0774884894586538</v>
       </c>
       <c r="C808" s="1">
         <f>IF(C807*$F$1/Parameters!B808&lt;1,1,IF(C807*$F$1/Parameters!B808&gt;10000,10000,C807*$F$1/Parameters!B808))</f>
@@ -26457,7 +26457,7 @@
       </c>
       <c r="B809" s="1">
         <f t="shared" si="12"/>
-        <v>6596.151996222201</v>
+        <v>4.2742735127920053</v>
       </c>
       <c r="C809" s="1">
         <f>IF(C808*$F$1/Parameters!B809&lt;1,1,IF(C808*$F$1/Parameters!B809&gt;10000,10000,C808*$F$1/Parameters!B809))</f>
@@ -26471,7 +26471,7 @@
       </c>
       <c r="B810" s="1">
         <f t="shared" si="12"/>
-        <v>1336.1906589585765</v>
+        <v>1</v>
       </c>
       <c r="C810" s="1">
         <f>IF(C809*$F$1/Parameters!B810&lt;1,1,IF(C809*$F$1/Parameters!B810&gt;10000,10000,C809*$F$1/Parameters!B810))</f>
@@ -26569,7 +26569,7 @@
       </c>
       <c r="B817" s="1">
         <f t="shared" si="12"/>
-        <v>668.13957054901448</v>
+        <v>1</v>
       </c>
       <c r="C817" s="1">
         <f>IF(C816*$F$1/Parameters!B817&lt;1,1,IF(C816*$F$1/Parameters!B817&gt;10000,10000,C816*$F$1/Parameters!B817))</f>
@@ -26583,7 +26583,7 @@
       </c>
       <c r="B818" s="1">
         <f t="shared" si="12"/>
-        <v>6120.1348819022387</v>
+        <v>3.965816802798241</v>
       </c>
       <c r="C818" s="1">
         <f>IF(C817*$F$1/Parameters!B818&lt;1,1,IF(C817*$F$1/Parameters!B818&gt;10000,10000,C817*$F$1/Parameters!B818))</f>
@@ -26597,7 +26597,7 @@
       </c>
       <c r="B819" s="1">
         <f t="shared" si="12"/>
-        <v>9226.0066356527823</v>
+        <v>5.9784061698698254</v>
       </c>
       <c r="C819" s="1">
         <f>IF(C818*$F$1/Parameters!B819&lt;1,1,IF(C818*$F$1/Parameters!B819&gt;10000,10000,C818*$F$1/Parameters!B819))</f>
@@ -26611,7 +26611,7 @@
       </c>
       <c r="B820" s="1">
         <f t="shared" si="12"/>
-        <v>9130.514980628237</v>
+        <v>5.9165280548721944</v>
       </c>
       <c r="C820" s="1">
         <f>IF(C819*$F$1/Parameters!B820&lt;1,1,IF(C819*$F$1/Parameters!B820&gt;10000,10000,C819*$F$1/Parameters!B820))</f>
@@ -26625,7 +26625,7 @@
       </c>
       <c r="B821" s="1">
         <f t="shared" si="12"/>
-        <v>5859.9547143303898</v>
+        <v>3.7972213551125216</v>
       </c>
       <c r="C821" s="1">
         <f>IF(C820*$F$1/Parameters!B821&lt;1,1,IF(C820*$F$1/Parameters!B821&gt;10000,10000,C820*$F$1/Parameters!B821))</f>
@@ -26639,7 +26639,7 @@
       </c>
       <c r="B822" s="1">
         <f t="shared" si="12"/>
-        <v>314.91468818920521</v>
+        <v>1</v>
       </c>
       <c r="C822" s="1">
         <f>IF(C821*$F$1/Parameters!B822&lt;1,1,IF(C821*$F$1/Parameters!B822&gt;10000,10000,C821*$F$1/Parameters!B822))</f>
@@ -26737,7 +26737,7 @@
       </c>
       <c r="B829" s="1">
         <f t="shared" si="12"/>
-        <v>1680.2937491937901</v>
+        <v>1.0888219480088299</v>
       </c>
       <c r="C829" s="1">
         <f>IF(C828*$F$1/Parameters!B829&lt;1,1,IF(C828*$F$1/Parameters!B829&gt;10000,10000,C828*$F$1/Parameters!B829))</f>
@@ -26751,7 +26751,7 @@
       </c>
       <c r="B830" s="1">
         <f t="shared" si="12"/>
-        <v>6832.8500689650646</v>
+        <v>4.4276526804390173</v>
       </c>
       <c r="C830" s="1">
         <f>IF(C829*$F$1/Parameters!B830&lt;1,1,IF(C829*$F$1/Parameters!B830&gt;10000,10000,C829*$F$1/Parameters!B830))</f>
@@ -26765,7 +26765,7 @@
       </c>
       <c r="B831" s="1">
         <f t="shared" si="12"/>
-        <v>9443.0279697486494</v>
+        <v>6.1190349092572767</v>
       </c>
       <c r="C831" s="1">
         <f>IF(C830*$F$1/Parameters!B831&lt;1,1,IF(C830*$F$1/Parameters!B831&gt;10000,10000,C830*$F$1/Parameters!B831))</f>
@@ -26779,7 +26779,7 @@
       </c>
       <c r="B832" s="1">
         <f t="shared" si="12"/>
-        <v>8792.0829777252438</v>
+        <v>5.6972258091510692</v>
       </c>
       <c r="C832" s="1">
         <f>IF(C831*$F$1/Parameters!B832&lt;1,1,IF(C831*$F$1/Parameters!B832&gt;10000,10000,C831*$F$1/Parameters!B832))</f>
@@ -26793,7 +26793,7 @@
       </c>
       <c r="B833" s="1">
         <f t="shared" si="12"/>
-        <v>5059.2607740557833</v>
+        <v>3.2783756852842769</v>
       </c>
       <c r="C833" s="1">
         <f>IF(C832*$F$1/Parameters!B833&lt;1,1,IF(C832*$F$1/Parameters!B833&gt;10000,10000,C832*$F$1/Parameters!B833))</f>
@@ -26905,7 +26905,7 @@
       </c>
       <c r="B841" s="1">
         <f t="shared" si="13"/>
-        <v>2660.5875458940213</v>
+        <v>1.7240474268015964</v>
       </c>
       <c r="C841" s="1">
         <f>IF(C840*$F$1/Parameters!B841&lt;1,1,IF(C840*$F$1/Parameters!B841&gt;10000,10000,C840*$F$1/Parameters!B841))</f>
@@ -26919,7 +26919,7 @@
       </c>
       <c r="B842" s="1">
         <f t="shared" si="13"/>
-        <v>7473.4718853748436</v>
+        <v>4.8427724143634716</v>
       </c>
       <c r="C842" s="1">
         <f>IF(C841*$F$1/Parameters!B842&lt;1,1,IF(C841*$F$1/Parameters!B842&gt;10000,10000,C841*$F$1/Parameters!B842))</f>
@@ -26933,7 +26933,7 @@
       </c>
       <c r="B843" s="1">
         <f t="shared" si="13"/>
-        <v>9567.574737627152</v>
+        <v>6.1997405921087072</v>
       </c>
       <c r="C843" s="1">
         <f>IF(C842*$F$1/Parameters!B843&lt;1,1,IF(C842*$F$1/Parameters!B843&gt;10000,10000,C842*$F$1/Parameters!B843))</f>
@@ -26947,7 +26947,7 @@
       </c>
       <c r="B844" s="1">
         <f t="shared" si="13"/>
-        <v>8366.2592181635991</v>
+        <v>5.421294142073922</v>
       </c>
       <c r="C844" s="1">
         <f>IF(C843*$F$1/Parameters!B844&lt;1,1,IF(C843*$F$1/Parameters!B844&gt;10000,10000,C843*$F$1/Parameters!B844))</f>
@@ -26961,7 +26961,7 @@
       </c>
       <c r="B845" s="1">
         <f t="shared" si="13"/>
-        <v>4200.3222779002826</v>
+        <v>2.7217878344679933</v>
       </c>
       <c r="C845" s="1">
         <f>IF(C844*$F$1/Parameters!B845&lt;1,1,IF(C844*$F$1/Parameters!B845&gt;10000,10000,C844*$F$1/Parameters!B845))</f>
@@ -27073,7 +27073,7 @@
       </c>
       <c r="B853" s="1">
         <f t="shared" si="13"/>
-        <v>3601.3664787176385</v>
+        <v>2.3336674713766361</v>
       </c>
       <c r="C853" s="1">
         <f>IF(C852*$F$1/Parameters!B853&lt;1,1,IF(C852*$F$1/Parameters!B853&gt;10000,10000,C852*$F$1/Parameters!B853))</f>
@@ -27087,7 +27087,7 @@
       </c>
       <c r="B854" s="1">
         <f t="shared" si="13"/>
-        <v>8036.9981285923895</v>
+        <v>5.2079346023372262</v>
       </c>
       <c r="C854" s="1">
         <f>IF(C853*$F$1/Parameters!B854&lt;1,1,IF(C853*$F$1/Parameters!B854&gt;10000,10000,C853*$F$1/Parameters!B854))</f>
@@ -27101,7 +27101,7 @@
       </c>
       <c r="B855" s="1">
         <f t="shared" si="13"/>
-        <v>9598.6744339152756</v>
+        <v>6.2198930398049299</v>
       </c>
       <c r="C855" s="1">
         <f>IF(C854*$F$1/Parameters!B855&lt;1,1,IF(C854*$F$1/Parameters!B855&gt;10000,10000,C854*$F$1/Parameters!B855))</f>
@@ -27115,7 +27115,7 @@
       </c>
       <c r="B856" s="1">
         <f t="shared" si="13"/>
-        <v>7856.3686850093818</v>
+        <v>5.0908876260426545</v>
       </c>
       <c r="C856" s="1">
         <f>IF(C855*$F$1/Parameters!B856&lt;1,1,IF(C855*$F$1/Parameters!B856&gt;10000,10000,C855*$F$1/Parameters!B856))</f>
@@ -27129,7 +27129,7 @@
       </c>
       <c r="B857" s="1">
         <f t="shared" si="13"/>
-        <v>3289.8461225327337</v>
+        <v>2.1318038381705988</v>
       </c>
       <c r="C857" s="1">
         <f>IF(C856*$F$1/Parameters!B857&lt;1,1,IF(C856*$F$1/Parameters!B857&gt;10000,10000,C856*$F$1/Parameters!B857))</f>
@@ -27241,7 +27241,7 @@
       </c>
       <c r="B865" s="1">
         <f t="shared" si="13"/>
-        <v>4495.2846118160123</v>
+        <v>2.9129219520337171</v>
       </c>
       <c r="C865" s="1">
         <f>IF(C864*$F$1/Parameters!B865&lt;1,1,IF(C864*$F$1/Parameters!B865&gt;10000,10000,C864*$F$1/Parameters!B865))</f>
@@ -27255,7 +27255,7 @@
       </c>
       <c r="B866" s="1">
         <f t="shared" si="13"/>
-        <v>8519.0285856800401</v>
+        <v>5.5202879283777371</v>
       </c>
       <c r="C866" s="1">
         <f>IF(C865*$F$1/Parameters!B866&lt;1,1,IF(C865*$F$1/Parameters!B866&gt;10000,10000,C865*$F$1/Parameters!B866))</f>
@@ -27269,7 +27269,7 @@
       </c>
       <c r="B867" s="1">
         <f t="shared" si="13"/>
-        <v>9536.0842211451818</v>
+        <v>6.1793348948809719</v>
       </c>
       <c r="C867" s="1">
         <f>IF(C866*$F$1/Parameters!B867&lt;1,1,IF(C866*$F$1/Parameters!B867&gt;10000,10000,C866*$F$1/Parameters!B867))</f>
@@ -27283,7 +27283,7 @@
       </c>
       <c r="B868" s="1">
         <f t="shared" si="13"/>
-        <v>7266.3927845374201</v>
+        <v>4.7085861924163259</v>
       </c>
       <c r="C868" s="1">
         <f>IF(C867*$F$1/Parameters!B868&lt;1,1,IF(C867*$F$1/Parameters!B868&gt;10000,10000,C867*$F$1/Parameters!B868))</f>
@@ -27297,7 +27297,7 @@
       </c>
       <c r="B869" s="1">
         <f t="shared" si="13"/>
-        <v>2334.9416289590463</v>
+        <v>1.5130305008573173</v>
       </c>
       <c r="C869" s="1">
         <f>IF(C868*$F$1/Parameters!B869&lt;1,1,IF(C868*$F$1/Parameters!B869&gt;10000,10000,C868*$F$1/Parameters!B869))</f>
@@ -27409,7 +27409,7 @@
       </c>
       <c r="B877" s="1">
         <f t="shared" si="13"/>
-        <v>5335.3619150985905</v>
+        <v>3.4572878441743109</v>
       </c>
       <c r="C877" s="1">
         <f>IF(C876*$F$1/Parameters!B877&lt;1,1,IF(C876*$F$1/Parameters!B877&gt;10000,10000,C876*$F$1/Parameters!B877))</f>
@@ -27423,7 +27423,7 @@
       </c>
       <c r="B878" s="1">
         <f t="shared" si="13"/>
-        <v>8915.7993917261665</v>
+        <v>5.7773934268415976</v>
       </c>
       <c r="C878" s="1">
         <f>IF(C877*$F$1/Parameters!B878&lt;1,1,IF(C877*$F$1/Parameters!B878&gt;10000,10000,C877*$F$1/Parameters!B878))</f>
@@ -27437,7 +27437,7 @@
       </c>
       <c r="B879" s="1">
         <f t="shared" si="13"/>
-        <v>9380.2928259153468</v>
+        <v>6.0783828497290147</v>
       </c>
       <c r="C879" s="1">
         <f>IF(C878*$F$1/Parameters!B879&lt;1,1,IF(C878*$F$1/Parameters!B879&gt;10000,10000,C878*$F$1/Parameters!B879))</f>
@@ -27451,7 +27451,7 @@
       </c>
       <c r="B880" s="1">
         <f t="shared" si="13"/>
-        <v>6600.9382579978628</v>
+        <v>4.2773749864913251</v>
       </c>
       <c r="C880" s="1">
         <f>IF(C879*$F$1/Parameters!B880&lt;1,1,IF(C879*$F$1/Parameters!B880&gt;10000,10000,C879*$F$1/Parameters!B880))</f>
@@ -27465,7 +27465,7 @@
       </c>
       <c r="B881" s="1">
         <f t="shared" si="13"/>
-        <v>1343.0650304202272</v>
+        <v>1</v>
       </c>
       <c r="C881" s="1">
         <f>IF(C880*$F$1/Parameters!B881&lt;1,1,IF(C880*$F$1/Parameters!B881&gt;10000,10000,C880*$F$1/Parameters!B881))</f>
@@ -27563,7 +27563,7 @@
       </c>
       <c r="B888" s="1">
         <f t="shared" si="13"/>
-        <v>661.1448342822996</v>
+        <v>1</v>
       </c>
       <c r="C888" s="1">
         <f>IF(C887*$F$1/Parameters!B888&lt;1,1,IF(C887*$F$1/Parameters!B888&gt;10000,10000,C887*$F$1/Parameters!B888))</f>
@@ -27577,7 +27577,7 @@
       </c>
       <c r="B889" s="1">
         <f t="shared" si="13"/>
-        <v>6115.0387667854884</v>
+        <v>3.9625145456831627</v>
       </c>
       <c r="C889" s="1">
         <f>IF(C888*$F$1/Parameters!B889&lt;1,1,IF(C888*$F$1/Parameters!B889&gt;10000,10000,C888*$F$1/Parameters!B889))</f>
@@ -27591,7 +27591,7 @@
       </c>
       <c r="B890" s="1">
         <f t="shared" si="13"/>
-        <v>9224.2124194384469</v>
+        <v>5.9772435267340169</v>
       </c>
       <c r="C890" s="1">
         <f>IF(C889*$F$1/Parameters!B890&lt;1,1,IF(C889*$F$1/Parameters!B890&gt;10000,10000,C889*$F$1/Parameters!B890))</f>
@@ -27605,7 +27605,7 @@
       </c>
       <c r="B891" s="1">
         <f t="shared" si="13"/>
-        <v>9132.5167227398142</v>
+        <v>5.917825173751786</v>
       </c>
       <c r="C891" s="1">
         <f>IF(C890*$F$1/Parameters!B891&lt;1,1,IF(C890*$F$1/Parameters!B891&gt;10000,10000,C890*$F$1/Parameters!B891))</f>
@@ -27619,7 +27619,7 @@
       </c>
       <c r="B892" s="1">
         <f t="shared" si="13"/>
-        <v>5865.2012105452595</v>
+        <v>3.8006210584272755</v>
       </c>
       <c r="C892" s="1">
         <f>IF(C891*$F$1/Parameters!B892&lt;1,1,IF(C891*$F$1/Parameters!B892&gt;10000,10000,C891*$F$1/Parameters!B892))</f>
@@ -27633,7 +27633,7 @@
       </c>
       <c r="B893" s="1">
         <f t="shared" si="13"/>
-        <v>321.96125147656221</v>
+        <v>1</v>
       </c>
       <c r="C893" s="1">
         <f>IF(C892*$F$1/Parameters!B893&lt;1,1,IF(C892*$F$1/Parameters!B893&gt;10000,10000,C892*$F$1/Parameters!B893))</f>
@@ -27731,7 +27731,7 @@
       </c>
       <c r="B900" s="1">
         <f t="shared" si="14"/>
-        <v>1673.4894281035608</v>
+        <v>1.0844127819639668</v>
       </c>
       <c r="C900" s="1">
         <f>IF(C899*$F$1/Parameters!B900&lt;1,1,IF(C899*$F$1/Parameters!B900&gt;10000,10000,C899*$F$1/Parameters!B900))</f>
@@ -27745,7 +27745,7 @@
       </c>
       <c r="B901" s="1">
         <f t="shared" si="14"/>
-        <v>6828.227173262776</v>
+        <v>4.4246570671384129</v>
       </c>
       <c r="C901" s="1">
         <f>IF(C900*$F$1/Parameters!B901&lt;1,1,IF(C900*$F$1/Parameters!B901&gt;10000,10000,C900*$F$1/Parameters!B901))</f>
@@ -27759,7 +27759,7 @@
       </c>
       <c r="B902" s="1">
         <f t="shared" si="14"/>
-        <v>9441.8594704214756</v>
+        <v>6.118277727535764</v>
       </c>
       <c r="C902" s="1">
         <f>IF(C901*$F$1/Parameters!B902&lt;1,1,IF(C901*$F$1/Parameters!B902&gt;10000,10000,C901*$F$1/Parameters!B902))</f>
@@ -27773,7 +27773,7 @@
       </c>
       <c r="B903" s="1">
         <f t="shared" si="14"/>
-        <v>8794.6906353833783</v>
+        <v>5.6989155582752522</v>
       </c>
       <c r="C903" s="1">
         <f>IF(C902*$F$1/Parameters!B903&lt;1,1,IF(C902*$F$1/Parameters!B903&gt;10000,10000,C902*$F$1/Parameters!B903))</f>
@@ -27787,7 +27787,7 @@
       </c>
       <c r="B904" s="1">
         <f t="shared" si="14"/>
-        <v>5064.9265382051053</v>
+        <v>3.2820470721242172</v>
       </c>
       <c r="C904" s="1">
         <f>IF(C903*$F$1/Parameters!B904&lt;1,1,IF(C903*$F$1/Parameters!B904&gt;10000,10000,C903*$F$1/Parameters!B904))</f>
@@ -27899,7 +27899,7 @@
       </c>
       <c r="B912" s="1">
         <f t="shared" si="14"/>
-        <v>2654.0267705346268</v>
+        <v>1.7197960771725855</v>
       </c>
       <c r="C912" s="1">
         <f>IF(C911*$F$1/Parameters!B912&lt;1,1,IF(C911*$F$1/Parameters!B912&gt;10000,10000,C911*$F$1/Parameters!B912))</f>
@@ -27913,7 +27913,7 @@
       </c>
       <c r="B913" s="1">
         <f t="shared" si="14"/>
-        <v>7469.3583062976122</v>
+        <v>4.8401068356893218</v>
       </c>
       <c r="C913" s="1">
         <f>IF(C912*$F$1/Parameters!B913&lt;1,1,IF(C912*$F$1/Parameters!B913&gt;10000,10000,C912*$F$1/Parameters!B913))</f>
@@ -27927,7 +27927,7 @@
       </c>
       <c r="B914" s="1">
         <f t="shared" si="14"/>
-        <v>9567.0410792446601</v>
+        <v>6.1993947841451433</v>
       </c>
       <c r="C914" s="1">
         <f>IF(C913*$F$1/Parameters!B914&lt;1,1,IF(C913*$F$1/Parameters!B914&gt;10000,10000,C913*$F$1/Parameters!B914))</f>
@@ -27941,7 +27941,7 @@
       </c>
       <c r="B915" s="1">
         <f t="shared" si="14"/>
-        <v>8369.4524298516735</v>
+        <v>5.4233633272817361</v>
       </c>
       <c r="C915" s="1">
         <f>IF(C914*$F$1/Parameters!B915&lt;1,1,IF(C914*$F$1/Parameters!B915&gt;10000,10000,C914*$F$1/Parameters!B915))</f>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="B916" s="1">
         <f t="shared" si="14"/>
-        <v>4206.3630696864475</v>
+        <v>2.7257022373414697</v>
       </c>
       <c r="C916" s="1">
         <f>IF(C915*$F$1/Parameters!B916&lt;1,1,IF(C915*$F$1/Parameters!B916&gt;10000,10000,C915*$F$1/Parameters!B916))</f>
@@ -28067,7 +28067,7 @@
       </c>
       <c r="B924" s="1">
         <f t="shared" si="14"/>
-        <v>3595.1004779519144</v>
+        <v>2.329607134210451</v>
       </c>
       <c r="C924" s="1">
         <f>IF(C923*$F$1/Parameters!B924&lt;1,1,IF(C923*$F$1/Parameters!B924&gt;10000,10000,C923*$F$1/Parameters!B924))</f>
@@ -28081,7 +28081,7 @@
       </c>
       <c r="B925" s="1">
         <f t="shared" si="14"/>
-        <v>8033.4259864258192</v>
+        <v>5.2056198720739992</v>
       </c>
       <c r="C925" s="1">
         <f>IF(C924*$F$1/Parameters!B925&lt;1,1,IF(C924*$F$1/Parameters!B925&gt;10000,10000,C924*$F$1/Parameters!B925))</f>
@@ -28095,7 +28095,7 @@
       </c>
       <c r="B926" s="1">
         <f t="shared" si="14"/>
-        <v>9598.7797834715457</v>
+        <v>6.219961305790644</v>
       </c>
       <c r="C926" s="1">
         <f>IF(C925*$F$1/Parameters!B926&lt;1,1,IF(C925*$F$1/Parameters!B926&gt;10000,10000,C925*$F$1/Parameters!B926))</f>
@@ -28109,7 +28109,7 @@
       </c>
       <c r="B927" s="1">
         <f t="shared" si="14"/>
-        <v>7860.1225169970658</v>
+        <v>5.0933200904015141</v>
       </c>
       <c r="C927" s="1">
         <f>IF(C926*$F$1/Parameters!B927&lt;1,1,IF(C926*$F$1/Parameters!B927&gt;10000,10000,C926*$F$1/Parameters!B927))</f>
@@ -28123,7 +28123,7 @@
       </c>
       <c r="B928" s="1">
         <f t="shared" si="14"/>
-        <v>3296.2147733092224</v>
+        <v>2.1359306920305099</v>
       </c>
       <c r="C928" s="1">
         <f>IF(C927*$F$1/Parameters!B928&lt;1,1,IF(C927*$F$1/Parameters!B928&gt;10000,10000,C927*$F$1/Parameters!B928))</f>
@@ -28235,7 +28235,7 @@
       </c>
       <c r="B936" s="1">
         <f t="shared" si="14"/>
-        <v>4489.3623128021318</v>
+        <v>2.9090843318842174</v>
       </c>
       <c r="C936" s="1">
         <f>IF(C935*$F$1/Parameters!B936&lt;1,1,IF(C935*$F$1/Parameters!B936&gt;10000,10000,C935*$F$1/Parameters!B936))</f>
@@ -28249,7 +28249,7 @@
       </c>
       <c r="B937" s="1">
         <f t="shared" si="14"/>
-        <v>8516.0257729781442</v>
+        <v>5.5183421207609724</v>
       </c>
       <c r="C937" s="1">
         <f>IF(C936*$F$1/Parameters!B937&lt;1,1,IF(C936*$F$1/Parameters!B937&gt;10000,10000,C936*$F$1/Parameters!B937))</f>
@@ -28263,7 +28263,7 @@
       </c>
       <c r="B938" s="1">
         <f t="shared" si="14"/>
-        <v>9536.8277560334791</v>
+        <v>6.1798167017709149</v>
       </c>
       <c r="C938" s="1">
         <f>IF(C937*$F$1/Parameters!B938&lt;1,1,IF(C937*$F$1/Parameters!B938&gt;10000,10000,C937*$F$1/Parameters!B938))</f>
@@ -28277,7 +28277,7 @@
       </c>
       <c r="B939" s="1">
         <f t="shared" si="14"/>
-        <v>7270.6779255720885</v>
+        <v>4.7113629423810854</v>
       </c>
       <c r="C939" s="1">
         <f>IF(C938*$F$1/Parameters!B939&lt;1,1,IF(C938*$F$1/Parameters!B939&gt;10000,10000,C938*$F$1/Parameters!B939))</f>
@@ -28291,7 +28291,7 @@
       </c>
       <c r="B940" s="1">
         <f t="shared" si="14"/>
-        <v>2341.5884100399626</v>
+        <v>1.5173375817638457</v>
       </c>
       <c r="C940" s="1">
         <f>IF(C939*$F$1/Parameters!B940&lt;1,1,IF(C939*$F$1/Parameters!B940&gt;10000,10000,C939*$F$1/Parameters!B940))</f>
@@ -28403,7 +28403,7 @@
       </c>
       <c r="B948" s="1">
         <f t="shared" si="14"/>
-        <v>5329.8295612494458</v>
+        <v>3.4537029065418343</v>
       </c>
       <c r="C948" s="1">
         <f>IF(C947*$F$1/Parameters!B948&lt;1,1,IF(C947*$F$1/Parameters!B948&gt;10000,10000,C947*$F$1/Parameters!B948))</f>
@@ -28417,7 +28417,7 @@
       </c>
       <c r="B949" s="1">
         <f t="shared" si="14"/>
-        <v>8913.389355516405</v>
+        <v>5.775831735427853</v>
       </c>
       <c r="C949" s="1">
         <f>IF(C948*$F$1/Parameters!B949&lt;1,1,IF(C948*$F$1/Parameters!B949&gt;10000,10000,C948*$F$1/Parameters!B949))</f>
@@ -28431,7 +28431,7 @@
       </c>
       <c r="B950" s="1">
         <f t="shared" si="14"/>
-        <v>9381.6687403513424</v>
+        <v>6.0792744354039678</v>
       </c>
       <c r="C950" s="1">
         <f>IF(C949*$F$1/Parameters!B950&lt;1,1,IF(C949*$F$1/Parameters!B950&gt;10000,10000,C949*$F$1/Parameters!B950))</f>
@@ -28445,7 +28445,7 @@
       </c>
       <c r="B951" s="1">
         <f t="shared" si="14"/>
-        <v>6605.7212481772494</v>
+        <v>4.2804743402126162</v>
       </c>
       <c r="C951" s="1">
         <f>IF(C950*$F$1/Parameters!B951&lt;1,1,IF(C950*$F$1/Parameters!B951&gt;10000,10000,C950*$F$1/Parameters!B951))</f>
@@ -28459,7 +28459,7 @@
       </c>
       <c r="B952" s="1">
         <f t="shared" si="14"/>
-        <v>1349.9380413795348</v>
+        <v>1</v>
       </c>
       <c r="C952" s="1">
         <f>IF(C951*$F$1/Parameters!B952&lt;1,1,IF(C951*$F$1/Parameters!B952&gt;10000,10000,C951*$F$1/Parameters!B952))</f>
@@ -28557,7 +28557,7 @@
       </c>
       <c r="B959" s="1">
         <f t="shared" si="14"/>
-        <v>654.14898537268709</v>
+        <v>1</v>
       </c>
       <c r="C959" s="1">
         <f>IF(C958*$F$1/Parameters!B959&lt;1,1,IF(C958*$F$1/Parameters!B959&gt;10000,10000,C958*$F$1/Parameters!B959))</f>
@@ -28571,7 +28571,7 @@
       </c>
       <c r="B960" s="1">
         <f t="shared" si="14"/>
-        <v>6109.939556683712</v>
+        <v>3.9592102830332623</v>
       </c>
       <c r="C960" s="1">
         <f>IF(C959*$F$1/Parameters!B960&lt;1,1,IF(C959*$F$1/Parameters!B960&gt;10000,10000,C959*$F$1/Parameters!B960))</f>
@@ -28585,7 +28585,7 @@
       </c>
       <c r="B961" s="1">
         <f t="shared" si="14"/>
-        <v>9222.4139781390168</v>
+        <v>5.9760781457641921</v>
       </c>
       <c r="C961" s="1">
         <f>IF(C960*$F$1/Parameters!B961&lt;1,1,IF(C960*$F$1/Parameters!B961&gt;10000,10000,C960*$F$1/Parameters!B961))</f>
@@ -28599,7 +28599,7 @@
       </c>
       <c r="B962" s="1">
         <f t="shared" si="14"/>
-        <v>9134.514273095192</v>
+        <v>5.9191195763943192</v>
       </c>
       <c r="C962" s="1">
         <f>IF(C961*$F$1/Parameters!B962&lt;1,1,IF(C961*$F$1/Parameters!B962&gt;10000,10000,C961*$F$1/Parameters!B962))</f>
@@ -28613,7 +28613,7 @@
       </c>
       <c r="B963" s="1">
         <f t="shared" ref="B963:B1020" si="15">IF(A963*$H$1&lt;1,1,IF(A963*$H$1&gt;10000,10000,A963*$H$1))</f>
-        <v>5870.4447025842619</v>
+        <v>3.8040188150510885</v>
       </c>
       <c r="C963" s="1">
         <f>IF(C962*$F$1/Parameters!B963&lt;1,1,IF(C962*$F$1/Parameters!B963&gt;10000,10000,C962*$F$1/Parameters!B963))</f>
@@ -28627,7 +28627,7 @@
       </c>
       <c r="B964" s="1">
         <f t="shared" si="15"/>
-        <v>329.00682540502885</v>
+        <v>1</v>
       </c>
       <c r="C964" s="1">
         <f>IF(C963*$F$1/Parameters!B964&lt;1,1,IF(C963*$F$1/Parameters!B964&gt;10000,10000,C963*$F$1/Parameters!B964))</f>
@@ -28725,7 +28725,7 @@
       </c>
       <c r="B971" s="1">
         <f t="shared" si="15"/>
-        <v>1666.6836264107033</v>
+        <v>1.0800026564960037</v>
       </c>
       <c r="C971" s="1">
         <f>IF(C970*$F$1/Parameters!B971&lt;1,1,IF(C970*$F$1/Parameters!B971&gt;10000,10000,C970*$F$1/Parameters!B971))</f>
@@ -28739,7 +28739,7 @@
       </c>
       <c r="B972" s="1">
         <f t="shared" si="15"/>
-        <v>6823.6009233508721</v>
+        <v>4.4216592803267485</v>
       </c>
       <c r="C972" s="1">
         <f>IF(C971*$F$1/Parameters!B972&lt;1,1,IF(C971*$F$1/Parameters!B972&gt;10000,10000,C971*$F$1/Parameters!B972))</f>
@@ -28753,7 +28753,7 @@
       </c>
       <c r="B973" s="1">
         <f t="shared" si="15"/>
-        <v>9440.6866669004248</v>
+        <v>6.1175177567181409</v>
       </c>
       <c r="C973" s="1">
         <f>IF(C972*$F$1/Parameters!B973&lt;1,1,IF(C972*$F$1/Parameters!B973&gt;10000,10000,C972*$F$1/Parameters!B973))</f>
@@ -28767,7 +28767,7 @@
       </c>
       <c r="B974" s="1">
         <f t="shared" si="15"/>
-        <v>8797.2942240759076</v>
+        <v>5.7006026707300679</v>
       </c>
       <c r="C974" s="1">
         <f>IF(C973*$F$1/Parameters!B974&lt;1,1,IF(C973*$F$1/Parameters!B974&gt;10000,10000,C973*$F$1/Parameters!B974))</f>
@@ -28781,7 +28781,7 @@
       </c>
       <c r="B975" s="1">
         <f t="shared" si="15"/>
-        <v>5070.5895890566408</v>
+        <v>3.2857167007607582</v>
       </c>
       <c r="C975" s="1">
         <f>IF(C974*$F$1/Parameters!B975&lt;1,1,IF(C974*$F$1/Parameters!B975&gt;10000,10000,C974*$F$1/Parameters!B975))</f>
@@ -28893,7 +28893,7 @@
       </c>
       <c r="B983" s="1">
         <f t="shared" si="15"/>
-        <v>2647.4641581739461</v>
+        <v>1.7155435371759262</v>
       </c>
       <c r="C983" s="1">
         <f>IF(C982*$F$1/Parameters!B983&lt;1,1,IF(C982*$F$1/Parameters!B983&gt;10000,10000,C982*$F$1/Parameters!B983))</f>
@@ -28907,7 +28907,7 @@
       </c>
       <c r="B984" s="1">
         <f t="shared" si="15"/>
-        <v>7465.2411399770353</v>
+        <v>4.8374389324994196</v>
       </c>
       <c r="C984" s="1">
         <f>IF(C983*$F$1/Parameters!B984&lt;1,1,IF(C983*$F$1/Parameters!B984&gt;10000,10000,C983*$F$1/Parameters!B984))</f>
@@ -28921,7 +28921,7 @@
       </c>
       <c r="B985" s="1">
         <f t="shared" si="15"/>
-        <v>9566.5030711681811</v>
+        <v>6.199046157601626</v>
       </c>
       <c r="C985" s="1">
         <f>IF(C984*$F$1/Parameters!B985&lt;1,1,IF(C984*$F$1/Parameters!B985&gt;10000,10000,C984*$F$1/Parameters!B985))</f>
@@ -28935,7 +28935,7 @@
       </c>
       <c r="B986" s="1">
         <f t="shared" si="15"/>
-        <v>8372.6417271366681</v>
+        <v>5.4254299759759252</v>
       </c>
       <c r="C986" s="1">
         <f>IF(C985*$F$1/Parameters!B986&lt;1,1,IF(C985*$F$1/Parameters!B986&gt;10000,10000,C985*$F$1/Parameters!B986))</f>
@@ -28949,7 +28949,7 @@
       </c>
       <c r="B987" s="1">
         <f t="shared" si="15"/>
-        <v>4212.4014602392981</v>
+        <v>2.7296150842277638</v>
       </c>
       <c r="C987" s="1">
         <f>IF(C986*$F$1/Parameters!B987&lt;1,1,IF(C986*$F$1/Parameters!B987&gt;10000,10000,C986*$F$1/Parameters!B987))</f>
@@ -29061,7 +29061,7 @@
       </c>
       <c r="B995" s="1">
         <f t="shared" si="15"/>
-        <v>3588.8322981302035</v>
+        <v>2.3255453850268815</v>
       </c>
       <c r="C995" s="1">
         <f>IF(C994*$F$1/Parameters!B995&lt;1,1,IF(C994*$F$1/Parameters!B995&gt;10000,10000,C994*$F$1/Parameters!B995))</f>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="B996" s="1">
         <f t="shared" si="15"/>
-        <v>8029.8500519926429</v>
+        <v>5.2033026844409731</v>
       </c>
       <c r="C996" s="1">
         <f>IF(C995*$F$1/Parameters!B996&lt;1,1,IF(C995*$F$1/Parameters!B996&gt;10000,10000,C995*$F$1/Parameters!B996))</f>
@@ -29089,7 +29089,7 @@
       </c>
       <c r="B997" s="1">
         <f t="shared" si="15"/>
-        <v>9598.8807717976706</v>
+        <v>6.2200267457210323</v>
       </c>
       <c r="C997" s="1">
         <f>IF(C996*$F$1/Parameters!B997&lt;1,1,IF(C996*$F$1/Parameters!B997&gt;10000,10000,C996*$F$1/Parameters!B997))</f>
@@ -29103,7 +29103,7 @@
       </c>
       <c r="B998" s="1">
         <f t="shared" si="15"/>
-        <v>7863.8726197092437</v>
+        <v>5.0957501382084915</v>
       </c>
       <c r="C998" s="1">
         <f>IF(C997*$F$1/Parameters!B998&lt;1,1,IF(C997*$F$1/Parameters!B998&gt;10000,10000,C997*$F$1/Parameters!B998))</f>
@@ -29117,7 +29117,7 @@
       </c>
       <c r="B999" s="1">
         <f t="shared" si="15"/>
-        <v>3302.5813536665482</v>
+        <v>2.1400562042691549</v>
       </c>
       <c r="C999" s="1">
         <f>IF(C998*$F$1/Parameters!B999&lt;1,1,IF(C998*$F$1/Parameters!B999&gt;10000,10000,C998*$F$1/Parameters!B999))</f>
@@ -29229,7 +29229,7 @@
       </c>
       <c r="B1007" s="1">
         <f t="shared" si="15"/>
-        <v>4483.4375096924059</v>
+        <v>2.9052450890931305</v>
       </c>
       <c r="C1007" s="1">
         <f>IF(C1006*$F$1/Parameters!B1007&lt;1,1,IF(C1006*$F$1/Parameters!B1007&gt;10000,10000,C1006*$F$1/Parameters!B1007))</f>
@@ -29243,7 +29243,7 @@
       </c>
       <c r="B1008" s="1">
         <f t="shared" si="15"/>
-        <v>8513.0189925977393</v>
+        <v>5.516393742108372</v>
       </c>
       <c r="C1008" s="1">
         <f>IF(C1007*$F$1/Parameters!B1008&lt;1,1,IF(C1007*$F$1/Parameters!B1008&gt;10000,10000,C1007*$F$1/Parameters!B1008))</f>
@@ -29257,7 +29257,7 @@
       </c>
       <c r="B1009" s="1">
         <f t="shared" si="15"/>
-        <v>9537.5669522095122</v>
+        <v>6.1802956971970033</v>
       </c>
       <c r="C1009" s="1">
         <f>IF(C1008*$F$1/Parameters!B1009&lt;1,1,IF(C1008*$F$1/Parameters!B1009&gt;10000,10000,C1008*$F$1/Parameters!B1009))</f>
@@ -29271,7 +29271,7 @@
       </c>
       <c r="B1010" s="1">
         <f t="shared" si="15"/>
-        <v>7274.9595515783249</v>
+        <v>4.7141374146249966</v>
       </c>
       <c r="C1010" s="1">
         <f>IF(C1009*$F$1/Parameters!B1010&lt;1,1,IF(C1009*$F$1/Parameters!B1010&gt;10000,10000,C1009*$F$1/Parameters!B1010))</f>
@@ -29285,7 +29285,7 @@
       </c>
       <c r="B1011" s="1">
         <f t="shared" si="15"/>
-        <v>2348.2334676824394</v>
+        <v>1.5216435458908824</v>
       </c>
       <c r="C1011" s="1">
         <f>IF(C1010*$F$1/Parameters!B1011&lt;1,1,IF(C1010*$F$1/Parameters!B1011&gt;10000,10000,C1010*$F$1/Parameters!B1011))</f>
@@ -29397,7 +29397,7 @@
       </c>
       <c r="B1019" s="1">
         <f t="shared" si="15"/>
-        <v>5324.294397817469</v>
+        <v>3.450116148313731</v>
       </c>
       <c r="C1019" s="1">
         <f>IF(C1018*$F$1/Parameters!B1019&lt;1,1,IF(C1018*$F$1/Parameters!B1019&gt;10000,10000,C1018*$F$1/Parameters!B1019))</f>
@@ -29411,7 +29411,7 @@
       </c>
       <c r="B1020" s="1">
         <f t="shared" si="15"/>
-        <v>8910.9752071972816</v>
+        <v>5.774267379387803</v>
       </c>
       <c r="C1020" s="1"/>
     </row>
